--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_17_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_17_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>524143.4429811057</v>
+        <v>523478.6618996879</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362195.2019480299</v>
+        <v>362195.2019480302</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.451805854</v>
+        <v>632041.4518058541</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>10.46022693027879</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>26.89230219312412</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>49.79374050860079</v>
+        <v>49.79374050860077</v>
       </c>
       <c r="V11" t="n">
-        <v>37.35252912340291</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="W11" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
     </row>
     <row r="12">
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>45.95193011057896</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.87880489469028</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="T12" t="n">
-        <v>14.58962378130643</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="U12" t="n">
-        <v>36.87179703458434</v>
+        <v>39.45889979223934</v>
       </c>
       <c r="V12" t="n">
-        <v>40.29306373012031</v>
+        <v>40.29306373012028</v>
       </c>
       <c r="W12" t="n">
-        <v>66.34872639172966</v>
+        <v>66.34872639172963</v>
       </c>
       <c r="X12" t="n">
-        <v>98.9399064850179</v>
+        <v>16.95705725418864</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.02842894874368</v>
+        <v>23.02842894874365</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.836158859791174</v>
+        <v>2.836158859791146</v>
       </c>
       <c r="S13" t="n">
-        <v>34.98996300440339</v>
+        <v>34.98996300440336</v>
       </c>
       <c r="T13" t="n">
-        <v>23.38309022542044</v>
+        <v>23.38309022542041</v>
       </c>
       <c r="U13" t="n">
-        <v>88.30041113171404</v>
+        <v>88.30041113171401</v>
       </c>
       <c r="V13" t="n">
-        <v>44.75315799916797</v>
+        <v>44.75315799916794</v>
       </c>
       <c r="W13" t="n">
-        <v>89.95484990405339</v>
+        <v>89.95484990405336</v>
       </c>
       <c r="X13" t="n">
-        <v>21.56359822296059</v>
+        <v>21.56359822296056</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.78541562888648</v>
+        <v>16.78541562888645</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>38.1955867131249</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.89230219312412</v>
+        <v>26.89230219312415</v>
       </c>
       <c r="T14" t="n">
-        <v>22.05838072575466</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>49.7937405086008</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>10.46022693027874</v>
       </c>
       <c r="Y14" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>80.87367775108075</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="T15" t="n">
-        <v>14.5896237813064</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="U15" t="n">
-        <v>36.87179703458431</v>
+        <v>36.87179703458434</v>
       </c>
       <c r="V15" t="n">
-        <v>40.29306373012028</v>
+        <v>40.29306373012031</v>
       </c>
       <c r="W15" t="n">
-        <v>66.34872639172963</v>
+        <v>68.93582914938455</v>
       </c>
       <c r="X15" t="n">
-        <v>16.95705725418864</v>
+        <v>16.95705725418867</v>
       </c>
       <c r="Y15" t="n">
-        <v>23.02842894874365</v>
+        <v>23.02842894874368</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.836158859791146</v>
+        <v>2.836158859791174</v>
       </c>
       <c r="S16" t="n">
-        <v>34.98996300440336</v>
+        <v>34.98996300440339</v>
       </c>
       <c r="T16" t="n">
-        <v>23.38309022542041</v>
+        <v>23.38309022542044</v>
       </c>
       <c r="U16" t="n">
-        <v>88.30041113171401</v>
+        <v>88.30041113171404</v>
       </c>
       <c r="V16" t="n">
-        <v>44.75315799916794</v>
+        <v>44.75315799916797</v>
       </c>
       <c r="W16" t="n">
-        <v>89.95484990405336</v>
+        <v>89.95484990405339</v>
       </c>
       <c r="X16" t="n">
-        <v>21.56359822296056</v>
+        <v>21.56359822296059</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.78541562888645</v>
+        <v>16.78541562888648</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44.24036351260008</v>
+        <v>44.24036351260003</v>
       </c>
       <c r="C17" t="n">
-        <v>20.35862051594557</v>
+        <v>20.35862051594552</v>
       </c>
       <c r="D17" t="n">
-        <v>7.925282776994038</v>
+        <v>7.925282776993981</v>
       </c>
       <c r="E17" t="n">
-        <v>41.63203519640291</v>
+        <v>41.63203519640285</v>
       </c>
       <c r="F17" t="n">
-        <v>73.35237277478024</v>
+        <v>73.35237277478018</v>
       </c>
       <c r="G17" t="n">
-        <v>88.9794986128276</v>
+        <v>88.97949861282757</v>
       </c>
       <c r="H17" t="n">
-        <v>17.0537007542836</v>
+        <v>17.05370075428357</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>8.049586960534606</v>
+        <v>8.049586960533588</v>
       </c>
       <c r="X17" t="n">
-        <v>29.93583742947288</v>
+        <v>29.93583742947283</v>
       </c>
       <c r="Y17" t="n">
-        <v>52.43869055321665</v>
+        <v>52.43869055321659</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>81.08256192171781</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>81.08256192171781</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="V18" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="W18" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>44.24036351260008</v>
+        <v>44.24036351260014</v>
       </c>
       <c r="C20" t="n">
-        <v>20.35862051594557</v>
+        <v>20.35862051594563</v>
       </c>
       <c r="D20" t="n">
-        <v>7.925282776994038</v>
+        <v>7.925282776994095</v>
       </c>
       <c r="E20" t="n">
-        <v>41.63203519640291</v>
+        <v>41.63203519640297</v>
       </c>
       <c r="F20" t="n">
-        <v>73.35237277478024</v>
+        <v>73.35237277478029</v>
       </c>
       <c r="G20" t="n">
-        <v>88.9794986128276</v>
+        <v>88.97949861282768</v>
       </c>
       <c r="H20" t="n">
-        <v>17.05370075428362</v>
+        <v>17.05370075428368</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.049586960533645</v>
+        <v>8.049586960533702</v>
       </c>
       <c r="X20" t="n">
-        <v>29.93583742947288</v>
+        <v>29.93583742947294</v>
       </c>
       <c r="Y20" t="n">
-        <v>52.43869055321651</v>
+        <v>52.4386905532167</v>
       </c>
     </row>
     <row r="21">
@@ -2163,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>87.14626963200369</v>
       </c>
       <c r="F21" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>81.08256192171784</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.24036351260008</v>
+        <v>44.24036351260014</v>
       </c>
       <c r="C23" t="n">
-        <v>20.35862051594557</v>
+        <v>20.35862051594563</v>
       </c>
       <c r="D23" t="n">
-        <v>7.925282776994038</v>
+        <v>7.925282776994095</v>
       </c>
       <c r="E23" t="n">
-        <v>41.63203519640291</v>
+        <v>41.63203519640297</v>
       </c>
       <c r="F23" t="n">
-        <v>73.35237277478024</v>
+        <v>73.35237277478029</v>
       </c>
       <c r="G23" t="n">
-        <v>88.9794986128276</v>
+        <v>88.97949861282768</v>
       </c>
       <c r="H23" t="n">
-        <v>17.05370075428362</v>
+        <v>17.05370075428368</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>8.049586960533645</v>
+        <v>8.049586960533702</v>
       </c>
       <c r="X23" t="n">
-        <v>29.93583742947288</v>
+        <v>29.93583742947294</v>
       </c>
       <c r="Y23" t="n">
-        <v>52.43869055321665</v>
+        <v>52.4386905532167</v>
       </c>
     </row>
     <row r="24">
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="T24" t="n">
-        <v>87.14626963200372</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="U24" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>98.9399064850179</v>
+        <v>87.14626963200365</v>
       </c>
       <c r="W24" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2265260322199</v>
+        <v>161.2265260322197</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3447830355653</v>
+        <v>137.3447830355652</v>
       </c>
       <c r="D26" t="n">
-        <v>124.9114452966138</v>
+        <v>124.9114452966137</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6181977160227</v>
+        <v>158.6181977160226</v>
       </c>
       <c r="F26" t="n">
-        <v>190.3385352944</v>
+        <v>190.3385352943999</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9656611324474</v>
+        <v>205.9656611324473</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0398632739034</v>
+        <v>134.0398632739033</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69423234529546</v>
+        <v>27.69423234529535</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.38744503279261</v>
+        <v>14.38744503279249</v>
       </c>
       <c r="T26" t="n">
-        <v>9.553523565423143</v>
+        <v>9.553523565423029</v>
       </c>
       <c r="U26" t="n">
-        <v>37.28888334826925</v>
+        <v>37.28888334826914</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0190692635385</v>
+        <v>108.0190692635384</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0357494801534</v>
+        <v>125.0357494801533</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9219999490927</v>
+        <v>146.9219999490925</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4248530728364</v>
+        <v>169.4248530728363</v>
       </c>
     </row>
     <row r="27">
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>104.741691184837</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>116.226459218187</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.08476662097489</v>
+        <v>2.084766620974777</v>
       </c>
       <c r="U27" t="n">
-        <v>24.3669398742528</v>
+        <v>24.36693987425268</v>
       </c>
       <c r="V27" t="n">
-        <v>27.78820656978877</v>
+        <v>27.78820656978866</v>
       </c>
       <c r="W27" t="n">
-        <v>53.84386923139812</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.45220009385713</v>
+        <v>4.452200093857016</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.52357178841214</v>
+        <v>10.52357178841203</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.48510584407185</v>
+        <v>22.48510584407174</v>
       </c>
       <c r="T28" t="n">
-        <v>10.8782330650889</v>
+        <v>10.87823306508878</v>
       </c>
       <c r="U28" t="n">
-        <v>75.7955539713825</v>
+        <v>75.79555397138239</v>
       </c>
       <c r="V28" t="n">
-        <v>32.24830083883643</v>
+        <v>32.24830083883631</v>
       </c>
       <c r="W28" t="n">
-        <v>77.44999274372185</v>
+        <v>77.44999274372174</v>
       </c>
       <c r="X28" t="n">
-        <v>9.058741062629053</v>
+        <v>9.05874106262894</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.280558468554943</v>
+        <v>4.28055846855483</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.2265260322199</v>
+        <v>161.2265260322198</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3447830355654</v>
+        <v>137.3447830355653</v>
       </c>
       <c r="D29" t="n">
-        <v>124.9114452966138</v>
+        <v>124.9114452966137</v>
       </c>
       <c r="E29" t="n">
-        <v>158.6181977160227</v>
+        <v>158.6181977160226</v>
       </c>
       <c r="F29" t="n">
-        <v>190.3385352944</v>
+        <v>190.3385352943999</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9656611324474</v>
+        <v>205.9656611324473</v>
       </c>
       <c r="H29" t="n">
-        <v>134.0398632739034</v>
+        <v>134.0398632739033</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69423234529549</v>
+        <v>27.69423234529538</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.38744503279263</v>
+        <v>14.38744503279252</v>
       </c>
       <c r="T29" t="n">
-        <v>9.553523565423172</v>
+        <v>9.553523565423058</v>
       </c>
       <c r="U29" t="n">
-        <v>37.28888334826928</v>
+        <v>37.28888334826917</v>
       </c>
       <c r="V29" t="n">
-        <v>108.0190692635386</v>
+        <v>108.0190692635385</v>
       </c>
       <c r="W29" t="n">
-        <v>125.0357494801534</v>
+        <v>125.0357494801533</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9219999490927</v>
+        <v>146.9219999490926</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.4248530728364</v>
+        <v>169.4248530728363</v>
       </c>
     </row>
     <row r="30">
@@ -2874,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>124.3816495546229</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6745619188949</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.084766620974919</v>
+        <v>2.084766620974805</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2276542198663</v>
+        <v>24.36693987425271</v>
       </c>
       <c r="V30" t="n">
-        <v>27.7882065697888</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.84386923139814</v>
+        <v>53.84386923139803</v>
       </c>
       <c r="X30" t="n">
-        <v>4.452200093857158</v>
+        <v>79.14737904103183</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.52357178841217</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.48510584407188</v>
+        <v>22.48510584407176</v>
       </c>
       <c r="T31" t="n">
-        <v>10.87823306508892</v>
+        <v>10.87823306508881</v>
       </c>
       <c r="U31" t="n">
-        <v>75.79555397138253</v>
+        <v>75.79555397138242</v>
       </c>
       <c r="V31" t="n">
-        <v>32.24830083883646</v>
+        <v>32.24830083883634</v>
       </c>
       <c r="W31" t="n">
-        <v>77.44999274372188</v>
+        <v>77.44999274372177</v>
       </c>
       <c r="X31" t="n">
-        <v>9.058741062629082</v>
+        <v>9.058741062628968</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.280558468554972</v>
+        <v>4.280558468554858</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3032,22 @@
         <v>137.3447830355654</v>
       </c>
       <c r="D32" t="n">
-        <v>124.9114452966139</v>
+        <v>124.9114452966138</v>
       </c>
       <c r="E32" t="n">
         <v>158.6181977160227</v>
       </c>
       <c r="F32" t="n">
-        <v>190.3385352944001</v>
+        <v>190.3385352944</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9656611324475</v>
+        <v>205.9656611324474</v>
       </c>
       <c r="H32" t="n">
         <v>134.0398632739034</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69423234529551</v>
+        <v>27.69423234529549</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.38744503279266</v>
+        <v>14.38744503279263</v>
       </c>
       <c r="T32" t="n">
-        <v>9.5535235654232</v>
+        <v>9.553523565423172</v>
       </c>
       <c r="U32" t="n">
-        <v>37.28888334826931</v>
+        <v>37.28888334826928</v>
       </c>
       <c r="V32" t="n">
         <v>108.0190692635386</v>
       </c>
       <c r="W32" t="n">
-        <v>125.0357494801535</v>
+        <v>125.0357494801534</v>
       </c>
       <c r="X32" t="n">
         <v>146.9219999490927</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.4248530728365</v>
+        <v>169.4248530728364</v>
       </c>
     </row>
     <row r="33">
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9454809665884</v>
+        <v>2.084766620974919</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2276542198663</v>
+        <v>233.390008841957</v>
       </c>
       <c r="V33" t="n">
-        <v>27.78820656978883</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>262.8669381991022</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.452200093857186</v>
+        <v>4.452200093857158</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5235717884122</v>
+        <v>10.52357178841217</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.48510584407191</v>
+        <v>22.48510584407188</v>
       </c>
       <c r="T34" t="n">
-        <v>10.87823306508895</v>
+        <v>10.87823306508892</v>
       </c>
       <c r="U34" t="n">
-        <v>75.79555397138256</v>
+        <v>75.79555397138253</v>
       </c>
       <c r="V34" t="n">
-        <v>32.24830083883649</v>
+        <v>32.24830083883646</v>
       </c>
       <c r="W34" t="n">
-        <v>77.44999274372191</v>
+        <v>77.44999274372188</v>
       </c>
       <c r="X34" t="n">
-        <v>9.05874106262911</v>
+        <v>9.058741062629082</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.280558468555</v>
+        <v>4.280558468554972</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D35" t="n">
-        <v>97.21721295131834</v>
+        <v>97.21721295131832</v>
       </c>
       <c r="E35" t="n">
         <v>130.9239653707272</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.594651002973796</v>
+        <v>9.594651002973768</v>
       </c>
       <c r="V35" t="n">
-        <v>80.32483691824308</v>
+        <v>80.32483691824305</v>
       </c>
       <c r="W35" t="n">
-        <v>97.34151713485795</v>
+        <v>97.34151713485792</v>
       </c>
       <c r="X35" t="n">
         <v>119.2277676037972</v>
       </c>
       <c r="Y35" t="n">
-        <v>141.730620727541</v>
+        <v>141.7306207275409</v>
       </c>
     </row>
     <row r="36">
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>3.295373441504158</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>50.40226768710733</v>
+        <v>0.09397422449328019</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>26.14963688610263</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.10132162608704</v>
+        <v>48.10132162608701</v>
       </c>
       <c r="V37" t="n">
-        <v>4.554068493540967</v>
+        <v>4.554068493540939</v>
       </c>
       <c r="W37" t="n">
-        <v>49.75576039842639</v>
+        <v>49.75576039842636</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>32.76865113936974</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V39" t="n">
         <v>0.09397422449328019</v>
       </c>
       <c r="W39" t="n">
-        <v>26.14963688610263</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>208.119479728409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3743,19 +3743,19 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D41" t="n">
-        <v>97.21721295131832</v>
+        <v>97.21721295131837</v>
       </c>
       <c r="E41" t="n">
         <v>130.9239653707272</v>
       </c>
       <c r="F41" t="n">
-        <v>162.6443029491045</v>
+        <v>162.6443029491046</v>
       </c>
       <c r="G41" t="n">
         <v>178.2714287871519</v>
       </c>
       <c r="H41" t="n">
-        <v>106.3456309286079</v>
+        <v>106.345630928608</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.594651002973768</v>
+        <v>9.594651002973825</v>
       </c>
       <c r="V41" t="n">
-        <v>80.32483691824305</v>
+        <v>80.32483691824311</v>
       </c>
       <c r="W41" t="n">
-        <v>97.34151713485792</v>
+        <v>97.34151713485798</v>
       </c>
       <c r="X41" t="n">
         <v>119.2277676037972</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.7306207275409</v>
+        <v>141.730620727541</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3861,25 +3861,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.063707710285861</v>
+        <v>6.063707710285826</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S42" t="n">
-        <v>60.19598058159215</v>
+        <v>110.0589496143863</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276542198663</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>26.14963688610263</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.10132162608701</v>
+        <v>48.10132162608707</v>
       </c>
       <c r="V43" t="n">
-        <v>4.554068493540939</v>
+        <v>4.554068493540996</v>
       </c>
       <c r="W43" t="n">
-        <v>49.75576039842636</v>
+        <v>49.75576039842642</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D44" t="n">
-        <v>97.21721295131834</v>
+        <v>97.21721295131832</v>
       </c>
       <c r="E44" t="n">
         <v>130.9239653707272</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.594651002973796</v>
+        <v>9.594651002973768</v>
       </c>
       <c r="V44" t="n">
-        <v>80.32483691824308</v>
+        <v>80.32483691824305</v>
       </c>
       <c r="W44" t="n">
-        <v>97.34151713485795</v>
+        <v>97.34151713485792</v>
       </c>
       <c r="X44" t="n">
         <v>119.2277676037972</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.730620727541</v>
+        <v>141.7306207275409</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4098,31 +4098,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.063707710285847</v>
+        <v>6.063707710285826</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4735447740308</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276542198663</v>
+        <v>133.8884077110118</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0.09397422449328019</v>
       </c>
       <c r="W45" t="n">
-        <v>86.34561746769477</v>
+        <v>26.14963688610263</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.10132162608704</v>
+        <v>48.10132162608701</v>
       </c>
       <c r="V46" t="n">
-        <v>4.554068493540967</v>
+        <v>4.554068493540939</v>
       </c>
       <c r="W46" t="n">
-        <v>49.75576039842639</v>
+        <v>49.75576039842636</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.8544919986175</v>
+        <v>18.48107830696179</v>
       </c>
       <c r="C11" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="D11" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="E11" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="F11" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="G11" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="H11" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I11" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J11" t="n">
-        <v>105.8656999389692</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K11" t="n">
-        <v>150.6825524764505</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="L11" t="n">
-        <v>199.2465091907926</v>
+        <v>101.2960017706246</v>
       </c>
       <c r="M11" t="n">
-        <v>282.1592279926928</v>
+        <v>184.2087205725249</v>
       </c>
       <c r="N11" t="n">
-        <v>359.5711252503921</v>
+        <v>261.6206178302242</v>
       </c>
       <c r="O11" t="n">
-        <v>395.7596259400716</v>
+        <v>297.8091185199037</v>
       </c>
       <c r="P11" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="Q11" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="R11" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="S11" t="n">
-        <v>395.7596259400716</v>
+        <v>368.5956843308551</v>
       </c>
       <c r="T11" t="n">
-        <v>395.7596259400716</v>
+        <v>368.5956843308551</v>
       </c>
       <c r="U11" t="n">
-        <v>345.4629183556264</v>
+        <v>318.2989767464098</v>
       </c>
       <c r="V11" t="n">
-        <v>307.7330909582497</v>
+        <v>218.3596772665938</v>
       </c>
       <c r="W11" t="n">
-        <v>207.7937914784336</v>
+        <v>218.3596772665938</v>
       </c>
       <c r="X11" t="n">
-        <v>207.7937914784336</v>
+        <v>118.4203777867778</v>
       </c>
       <c r="Y11" t="n">
-        <v>207.7937914784336</v>
+        <v>18.48107830696179</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>106.7341167665481</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="C12" t="n">
-        <v>106.7341167665481</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="D12" t="n">
-        <v>106.7341167665481</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="E12" t="n">
-        <v>60.31802574576131</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="F12" t="n">
-        <v>60.31802574576131</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="G12" t="n">
-        <v>60.31802574576131</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="H12" t="n">
-        <v>60.31802574576131</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I12" t="n">
-        <v>60.31802574576131</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J12" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K12" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="L12" t="n">
-        <v>105.8656999389692</v>
+        <v>101.9081036795683</v>
       </c>
       <c r="M12" t="n">
-        <v>203.8162073591369</v>
+        <v>199.858611099736</v>
       </c>
       <c r="N12" t="n">
-        <v>212.9907034158993</v>
+        <v>297.8091185199037</v>
       </c>
       <c r="O12" t="n">
-        <v>310.9412108360671</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="P12" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="Q12" t="n">
-        <v>389.6346686569545</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="R12" t="n">
-        <v>389.6346686569545</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="S12" t="n">
-        <v>389.6346686569545</v>
+        <v>295.8203264602554</v>
       </c>
       <c r="T12" t="n">
-        <v>374.8976749384632</v>
+        <v>195.8810269804394</v>
       </c>
       <c r="U12" t="n">
-        <v>337.6534355095901</v>
+        <v>156.0235524428239</v>
       </c>
       <c r="V12" t="n">
-        <v>296.9533711357312</v>
+        <v>115.323488068965</v>
       </c>
       <c r="W12" t="n">
-        <v>229.9344555885295</v>
+        <v>48.30457252176335</v>
       </c>
       <c r="X12" t="n">
-        <v>129.9951561087135</v>
+        <v>31.17623186096674</v>
       </c>
       <c r="Y12" t="n">
-        <v>106.7341167665481</v>
+        <v>7.915192518801428</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="C13" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="D13" t="n">
-        <v>62.53666738402695</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="E13" t="n">
-        <v>62.53666738402695</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="F13" t="n">
-        <v>62.53666738402695</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="G13" t="n">
-        <v>62.53666738402695</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="H13" t="n">
-        <v>62.53666738402695</v>
+        <v>39.88856417385117</v>
       </c>
       <c r="I13" t="n">
-        <v>62.53666738402695</v>
+        <v>39.88856417385117</v>
       </c>
       <c r="J13" t="n">
-        <v>62.53666738402695</v>
+        <v>39.88856417385117</v>
       </c>
       <c r="K13" t="n">
-        <v>137.8390715940191</v>
+        <v>39.88856417385117</v>
       </c>
       <c r="L13" t="n">
-        <v>137.8390715940191</v>
+        <v>137.8390715940188</v>
       </c>
       <c r="M13" t="n">
-        <v>235.7895790141868</v>
+        <v>235.7895790141865</v>
       </c>
       <c r="N13" t="n">
-        <v>235.7895790141868</v>
+        <v>235.7895790141865</v>
       </c>
       <c r="O13" t="n">
-        <v>235.7895790141868</v>
+        <v>235.7895790141865</v>
       </c>
       <c r="P13" t="n">
-        <v>333.7400864343545</v>
+        <v>333.7400864343542</v>
       </c>
       <c r="Q13" t="n">
-        <v>333.7400864343545</v>
+        <v>333.7400864343542</v>
       </c>
       <c r="R13" t="n">
-        <v>330.8752795052725</v>
+        <v>330.8752795052722</v>
       </c>
       <c r="S13" t="n">
-        <v>295.5318825311276</v>
+        <v>295.5318825311274</v>
       </c>
       <c r="T13" t="n">
-        <v>271.9125994751474</v>
+        <v>271.9125994751472</v>
       </c>
       <c r="U13" t="n">
-        <v>182.7202649986685</v>
+        <v>182.7202649986684</v>
       </c>
       <c r="V13" t="n">
-        <v>137.5150548984989</v>
+        <v>137.5150548984988</v>
       </c>
       <c r="W13" t="n">
-        <v>46.6515701469298</v>
+        <v>46.65157014692974</v>
       </c>
       <c r="X13" t="n">
-        <v>24.87015780050495</v>
+        <v>24.87015780050492</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>246.3751921987618</v>
+        <v>107.8544919986174</v>
       </c>
       <c r="C14" t="n">
-        <v>246.3751921987618</v>
+        <v>107.8544919986174</v>
       </c>
       <c r="D14" t="n">
-        <v>146.4358927189457</v>
+        <v>107.8544919986174</v>
       </c>
       <c r="E14" t="n">
-        <v>107.8544919986175</v>
+        <v>107.8544919986174</v>
       </c>
       <c r="F14" t="n">
-        <v>107.8544919986175</v>
+        <v>107.8544919986174</v>
       </c>
       <c r="G14" t="n">
-        <v>107.8544919986175</v>
+        <v>107.8544919986174</v>
       </c>
       <c r="H14" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I14" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J14" t="n">
-        <v>7.915192518801432</v>
+        <v>105.8656999389691</v>
       </c>
       <c r="K14" t="n">
-        <v>7.915192518801432</v>
+        <v>105.8656999389691</v>
       </c>
       <c r="L14" t="n">
-        <v>56.47914923314351</v>
+        <v>154.4296566533112</v>
       </c>
       <c r="M14" t="n">
-        <v>139.3918680350438</v>
+        <v>252.3801640734789</v>
       </c>
       <c r="N14" t="n">
-        <v>216.8037652927431</v>
+        <v>350.3306714936465</v>
       </c>
       <c r="O14" t="n">
-        <v>252.9922659824226</v>
+        <v>386.519172183326</v>
       </c>
       <c r="P14" t="n">
-        <v>297.8091185199039</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="Q14" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="R14" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="S14" t="n">
-        <v>368.5956843308553</v>
+        <v>368.595684330855</v>
       </c>
       <c r="T14" t="n">
-        <v>346.3144916785778</v>
+        <v>368.595684330855</v>
       </c>
       <c r="U14" t="n">
-        <v>346.3144916785778</v>
+        <v>318.2989767464098</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3144916785778</v>
+        <v>218.3596772665938</v>
       </c>
       <c r="W14" t="n">
-        <v>346.3144916785778</v>
+        <v>218.3596772665938</v>
       </c>
       <c r="X14" t="n">
-        <v>346.3144916785778</v>
+        <v>207.7937914784335</v>
       </c>
       <c r="Y14" t="n">
-        <v>246.3751921987618</v>
+        <v>207.7937914784335</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="C15" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="D15" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="E15" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="F15" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="G15" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="H15" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I15" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J15" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K15" t="n">
-        <v>7.915192518801432</v>
+        <v>46.88760930735561</v>
       </c>
       <c r="L15" t="n">
-        <v>105.8656999389692</v>
+        <v>115.0401959957315</v>
       </c>
       <c r="M15" t="n">
-        <v>203.8162073591369</v>
+        <v>212.9907034158992</v>
       </c>
       <c r="N15" t="n">
-        <v>212.9907034158993</v>
+        <v>212.9907034158992</v>
       </c>
       <c r="O15" t="n">
-        <v>310.9412108360671</v>
+        <v>310.9412108360668</v>
       </c>
       <c r="P15" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="Q15" t="n">
-        <v>389.6346686569545</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="R15" t="n">
-        <v>389.6346686569545</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="S15" t="n">
-        <v>307.9440850700043</v>
+        <v>295.8203264602554</v>
       </c>
       <c r="T15" t="n">
-        <v>293.207091351513</v>
+        <v>195.8810269804394</v>
       </c>
       <c r="U15" t="n">
-        <v>255.9628519226399</v>
+        <v>158.6367875515663</v>
       </c>
       <c r="V15" t="n">
-        <v>215.262787548781</v>
+        <v>117.9367231777074</v>
       </c>
       <c r="W15" t="n">
-        <v>148.2438720015794</v>
+        <v>48.3045725217634</v>
       </c>
       <c r="X15" t="n">
-        <v>131.1155313407828</v>
+        <v>31.17623186096677</v>
       </c>
       <c r="Y15" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801428</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="C16" t="n">
-        <v>7.915192518801432</v>
+        <v>41.47488196997791</v>
       </c>
       <c r="D16" t="n">
-        <v>62.53666738402698</v>
+        <v>41.47488196997791</v>
       </c>
       <c r="E16" t="n">
-        <v>62.53666738402698</v>
+        <v>99.56780078330428</v>
       </c>
       <c r="F16" t="n">
-        <v>62.53666738402698</v>
+        <v>99.56780078330428</v>
       </c>
       <c r="G16" t="n">
-        <v>62.53666738402698</v>
+        <v>99.56780078330428</v>
       </c>
       <c r="H16" t="n">
-        <v>62.53666738402698</v>
+        <v>133.8005254224039</v>
       </c>
       <c r="I16" t="n">
-        <v>62.53666738402698</v>
+        <v>133.8005254224039</v>
       </c>
       <c r="J16" t="n">
-        <v>62.53666738402698</v>
+        <v>133.8005254224039</v>
       </c>
       <c r="K16" t="n">
-        <v>62.53666738402698</v>
+        <v>137.8390715940192</v>
       </c>
       <c r="L16" t="n">
-        <v>62.53666738402698</v>
+        <v>137.8390715940192</v>
       </c>
       <c r="M16" t="n">
-        <v>160.4871748041947</v>
+        <v>235.7895790141868</v>
       </c>
       <c r="N16" t="n">
-        <v>258.4376822243624</v>
+        <v>235.7895790141868</v>
       </c>
       <c r="O16" t="n">
-        <v>260.8939069396876</v>
+        <v>333.7400864343545</v>
       </c>
       <c r="P16" t="n">
-        <v>260.8939069396876</v>
+        <v>333.7400864343545</v>
       </c>
       <c r="Q16" t="n">
-        <v>333.7400864343542</v>
+        <v>333.7400864343545</v>
       </c>
       <c r="R16" t="n">
-        <v>330.8752795052723</v>
+        <v>330.8752795052725</v>
       </c>
       <c r="S16" t="n">
-        <v>295.5318825311275</v>
+        <v>295.5318825311276</v>
       </c>
       <c r="T16" t="n">
-        <v>271.9125994751473</v>
+        <v>271.9125994751474</v>
       </c>
       <c r="U16" t="n">
         <v>182.7202649986685</v>
       </c>
       <c r="V16" t="n">
-        <v>137.5150548984988</v>
+        <v>137.5150548984989</v>
       </c>
       <c r="W16" t="n">
-        <v>46.65157014692974</v>
+        <v>46.65157014692979</v>
       </c>
       <c r="X16" t="n">
-        <v>24.87015780050492</v>
+        <v>24.87015780050495</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>259.7349002271185</v>
+        <v>259.7349002271191</v>
       </c>
       <c r="C17" t="n">
-        <v>239.1706370796987</v>
+        <v>239.1706370796992</v>
       </c>
       <c r="D17" t="n">
-        <v>231.1653009413209</v>
+        <v>231.1653009413214</v>
       </c>
       <c r="E17" t="n">
-        <v>189.1127401368736</v>
+        <v>189.1127401368737</v>
       </c>
       <c r="F17" t="n">
-        <v>115.0194343037622</v>
+        <v>115.0194343037624</v>
       </c>
       <c r="G17" t="n">
-        <v>25.14115287666366</v>
+        <v>25.14115287666362</v>
       </c>
       <c r="H17" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I17" t="n">
-        <v>52.73204505628276</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J17" t="n">
-        <v>52.73204505628276</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K17" t="n">
-        <v>52.73204505628276</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="L17" t="n">
-        <v>101.2960017706248</v>
+        <v>56.4791492331435</v>
       </c>
       <c r="M17" t="n">
-        <v>184.2087205725251</v>
+        <v>139.3918680350438</v>
       </c>
       <c r="N17" t="n">
-        <v>261.6206178302244</v>
+        <v>216.8037652927431</v>
       </c>
       <c r="O17" t="n">
-        <v>297.8091185199039</v>
+        <v>252.9922659824226</v>
       </c>
       <c r="P17" t="n">
-        <v>297.8091185199039</v>
+        <v>350.9427734025903</v>
       </c>
       <c r="Q17" t="n">
-        <v>297.8091185199039</v>
+        <v>350.9427734025903</v>
       </c>
       <c r="R17" t="n">
-        <v>297.8091185199039</v>
+        <v>350.9427734025903</v>
       </c>
       <c r="S17" t="n">
-        <v>297.8091185199039</v>
+        <v>386.8822036165509</v>
       </c>
       <c r="T17" t="n">
-        <v>395.7596259400716</v>
+        <v>386.8822036165509</v>
       </c>
       <c r="U17" t="n">
-        <v>395.7596259400716</v>
+        <v>386.8822036165509</v>
       </c>
       <c r="V17" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="W17" t="n">
-        <v>387.6287300203402</v>
+        <v>387.6287300203405</v>
       </c>
       <c r="X17" t="n">
-        <v>357.3905103946101</v>
+        <v>357.3905103946106</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.4221360984317</v>
+        <v>304.4221360984322</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>89.8167702175063</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="C18" t="n">
-        <v>89.8167702175063</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="D18" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="E18" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="F18" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="G18" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="H18" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I18" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J18" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K18" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="L18" t="n">
-        <v>105.8656999389692</v>
+        <v>105.8656999389691</v>
       </c>
       <c r="M18" t="n">
-        <v>115.0401959957316</v>
+        <v>203.8162073591368</v>
       </c>
       <c r="N18" t="n">
-        <v>212.9907034158993</v>
+        <v>212.9907034158992</v>
       </c>
       <c r="O18" t="n">
-        <v>310.9412108360671</v>
+        <v>310.9412108360668</v>
       </c>
       <c r="P18" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="Q18" t="n">
-        <v>389.6346686569545</v>
+        <v>389.6346686569543</v>
       </c>
       <c r="R18" t="n">
-        <v>389.6346686569545</v>
+        <v>289.6953691771383</v>
       </c>
       <c r="S18" t="n">
-        <v>389.6346686569545</v>
+        <v>289.6953691771383</v>
       </c>
       <c r="T18" t="n">
-        <v>389.6346686569545</v>
+        <v>207.7937914784335</v>
       </c>
       <c r="U18" t="n">
-        <v>389.6346686569545</v>
+        <v>107.8544919986174</v>
       </c>
       <c r="V18" t="n">
-        <v>289.6953691771384</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="W18" t="n">
-        <v>189.7560696973224</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="X18" t="n">
-        <v>89.8167702175063</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="Y18" t="n">
-        <v>89.8167702175063</v>
+        <v>7.915192518801428</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="C19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="D19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="E19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="F19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="G19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="H19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="L19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="M19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="N19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="O19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="P19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="R19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="S19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="T19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="U19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="V19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="W19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="X19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
     </row>
     <row r="20">
@@ -5726,73 +5726,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>259.7349002271188</v>
+        <v>259.7349002271187</v>
       </c>
       <c r="C20" t="n">
-        <v>239.1706370796992</v>
+        <v>239.170637079699</v>
       </c>
       <c r="D20" t="n">
-        <v>231.1653009413213</v>
+        <v>231.1653009413211</v>
       </c>
       <c r="E20" t="n">
-        <v>189.112740136874</v>
+        <v>189.1127401368737</v>
       </c>
       <c r="F20" t="n">
-        <v>115.0194343037625</v>
+        <v>115.0194343037623</v>
       </c>
       <c r="G20" t="n">
-        <v>25.14115287666368</v>
+        <v>25.14115287666373</v>
       </c>
       <c r="H20" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I20" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J20" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K20" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="L20" t="n">
-        <v>56.47914923314351</v>
+        <v>56.4791492331435</v>
       </c>
       <c r="M20" t="n">
-        <v>139.3918680350438</v>
+        <v>154.4296566533112</v>
       </c>
       <c r="N20" t="n">
-        <v>216.8037652927431</v>
+        <v>231.8415539110105</v>
       </c>
       <c r="O20" t="n">
-        <v>252.9922659824226</v>
+        <v>268.0300546006899</v>
       </c>
       <c r="P20" t="n">
-        <v>252.9922659824226</v>
+        <v>297.8091185199037</v>
       </c>
       <c r="Q20" t="n">
-        <v>252.9922659824226</v>
+        <v>297.8091185199037</v>
       </c>
       <c r="R20" t="n">
-        <v>252.9922659824226</v>
+        <v>297.8091185199037</v>
       </c>
       <c r="S20" t="n">
-        <v>350.9427734025903</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="T20" t="n">
-        <v>350.9427734025903</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="U20" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="V20" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="W20" t="n">
-        <v>387.6287300203408</v>
+        <v>387.6287300203406</v>
       </c>
       <c r="X20" t="n">
-        <v>357.3905103946106</v>
+        <v>357.3905103946105</v>
       </c>
       <c r="Y20" t="n">
         <v>304.422136098432</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>307.7330909582496</v>
+        <v>95.94172750062336</v>
       </c>
       <c r="C21" t="n">
-        <v>307.7330909582496</v>
+        <v>95.94172750062336</v>
       </c>
       <c r="D21" t="n">
-        <v>207.7937914784336</v>
+        <v>95.94172750062336</v>
       </c>
       <c r="E21" t="n">
-        <v>207.7937914784336</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="G21" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="H21" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I21" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J21" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K21" t="n">
-        <v>7.915192518801432</v>
+        <v>46.88760930735561</v>
       </c>
       <c r="L21" t="n">
-        <v>17.08968857556388</v>
+        <v>46.88760930735561</v>
       </c>
       <c r="M21" t="n">
-        <v>115.0401959957316</v>
+        <v>115.0401959957315</v>
       </c>
       <c r="N21" t="n">
-        <v>212.9907034158993</v>
+        <v>212.9907034158992</v>
       </c>
       <c r="O21" t="n">
-        <v>310.9412108360671</v>
+        <v>310.9412108360668</v>
       </c>
       <c r="P21" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="Q21" t="n">
-        <v>389.6346686569545</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="R21" t="n">
-        <v>307.7330909582496</v>
+        <v>295.8203264602554</v>
       </c>
       <c r="S21" t="n">
-        <v>307.7330909582496</v>
+        <v>295.8203264602554</v>
       </c>
       <c r="T21" t="n">
-        <v>307.7330909582496</v>
+        <v>295.8203264602554</v>
       </c>
       <c r="U21" t="n">
-        <v>307.7330909582496</v>
+        <v>195.8810269804394</v>
       </c>
       <c r="V21" t="n">
-        <v>307.7330909582496</v>
+        <v>195.8810269804394</v>
       </c>
       <c r="W21" t="n">
-        <v>307.7330909582496</v>
+        <v>195.8810269804394</v>
       </c>
       <c r="X21" t="n">
-        <v>307.7330909582496</v>
+        <v>195.8810269804394</v>
       </c>
       <c r="Y21" t="n">
-        <v>307.7330909582496</v>
+        <v>95.94172750062336</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="C22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="D22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="E22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="F22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="G22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="H22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="L22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="M22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="N22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="O22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="P22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="R22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="S22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="T22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="U22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="V22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="W22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="X22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801428</v>
       </c>
     </row>
     <row r="23">
@@ -5966,64 +5966,64 @@
         <v>259.7349002271188</v>
       </c>
       <c r="C23" t="n">
-        <v>239.1706370796991</v>
+        <v>239.1706370796989</v>
       </c>
       <c r="D23" t="n">
-        <v>231.1653009413213</v>
+        <v>231.165300941321</v>
       </c>
       <c r="E23" t="n">
-        <v>189.1127401368739</v>
+        <v>189.1127401368738</v>
       </c>
       <c r="F23" t="n">
-        <v>115.0194343037626</v>
+        <v>115.0194343037624</v>
       </c>
       <c r="G23" t="n">
-        <v>25.14115287666368</v>
+        <v>25.14115287666374</v>
       </c>
       <c r="H23" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="I23" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="J23" t="n">
-        <v>43.85462273276223</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="K23" t="n">
-        <v>43.85462273276223</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="L23" t="n">
-        <v>92.41857944710431</v>
+        <v>56.4791492331435</v>
       </c>
       <c r="M23" t="n">
-        <v>175.3312982490046</v>
+        <v>139.3918680350438</v>
       </c>
       <c r="N23" t="n">
-        <v>252.7431955067039</v>
+        <v>216.8037652927431</v>
       </c>
       <c r="O23" t="n">
-        <v>288.9316961963834</v>
+        <v>297.8091185199037</v>
       </c>
       <c r="P23" t="n">
-        <v>288.9316961963834</v>
+        <v>297.8091185199037</v>
       </c>
       <c r="Q23" t="n">
-        <v>288.9316961963834</v>
+        <v>297.8091185199037</v>
       </c>
       <c r="R23" t="n">
-        <v>288.9316961963834</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="S23" t="n">
-        <v>288.9316961963834</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="T23" t="n">
-        <v>386.8822036165512</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="U23" t="n">
-        <v>386.8822036165512</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="V23" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="W23" t="n">
         <v>387.6287300203407</v>
@@ -6032,7 +6032,7 @@
         <v>357.3905103946105</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.422136098432</v>
+        <v>304.4221360984321</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="C24" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="D24" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="E24" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="F24" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="G24" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="H24" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="I24" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="J24" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="K24" t="n">
-        <v>7.915192518801432</v>
+        <v>46.88760930735561</v>
       </c>
       <c r="L24" t="n">
-        <v>105.8656999389692</v>
+        <v>46.88760930735561</v>
       </c>
       <c r="M24" t="n">
-        <v>203.8162073591369</v>
+        <v>144.8381167275233</v>
       </c>
       <c r="N24" t="n">
-        <v>301.7667147793046</v>
+        <v>242.788624147691</v>
       </c>
       <c r="O24" t="n">
-        <v>310.9412108360671</v>
+        <v>310.9412108360668</v>
       </c>
       <c r="P24" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="Q24" t="n">
-        <v>395.7596259400716</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="R24" t="n">
-        <v>395.7596259400716</v>
+        <v>295.8203264602554</v>
       </c>
       <c r="S24" t="n">
-        <v>395.7596259400716</v>
+        <v>195.8810269804393</v>
       </c>
       <c r="T24" t="n">
-        <v>307.7330909582496</v>
+        <v>95.94172750062332</v>
       </c>
       <c r="U24" t="n">
-        <v>207.7937914784336</v>
+        <v>95.94172750062332</v>
       </c>
       <c r="V24" t="n">
-        <v>107.8544919986175</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="W24" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="X24" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="C25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="D25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="E25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="F25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="G25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="H25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="I25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="J25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="K25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="L25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="M25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="N25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="O25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="P25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="R25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="S25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="T25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="U25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="V25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="W25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="X25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.915192518801432</v>
+        <v>7.915192518801429</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.891650267094</v>
+        <v>1024.891650267093</v>
       </c>
       <c r="C26" t="n">
-        <v>886.1595461907657</v>
+        <v>886.1595461907649</v>
       </c>
       <c r="D26" t="n">
-        <v>759.9863691234789</v>
+        <v>759.9863691234782</v>
       </c>
       <c r="E26" t="n">
-        <v>599.7659673901227</v>
+        <v>599.7659673901221</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5048206281024</v>
+        <v>407.5048206281019</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4586982720948</v>
+        <v>199.4586982720945</v>
       </c>
       <c r="H26" t="n">
-        <v>64.0648969853237</v>
+        <v>64.06489698532356</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J26" t="n">
         <v>171.8005131365276</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3583775511677</v>
+        <v>377.3583775511668</v>
       </c>
       <c r="L26" t="n">
-        <v>636.6544414676671</v>
+        <v>636.6544414676663</v>
       </c>
       <c r="M26" t="n">
-        <v>930.2992674717252</v>
+        <v>930.299267471724</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.443271931582</v>
+        <v>1218.443271931581</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.363879823419</v>
+        <v>1465.363879823418</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.834462498259</v>
+        <v>1662.834462498258</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.013205691</v>
+        <v>1786.013205690999</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968433</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.013473208038</v>
+        <v>1790.013473208036</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.36344940458</v>
+        <v>1780.363449404579</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.697910668954</v>
+        <v>1742.697910668953</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.587739695683</v>
+        <v>1633.587739695681</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.289002847043</v>
+        <v>1507.289002847042</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.882942292404</v>
+        <v>1358.882942292403</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.746727067316</v>
+        <v>1187.746727067315</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>677.2469831607134</v>
+        <v>141.8906129848606</v>
       </c>
       <c r="C27" t="n">
-        <v>487.8347088936771</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D27" t="n">
-        <v>327.0545926547088</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E27" t="n">
-        <v>153.4913887761233</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K27" t="n">
-        <v>75.06334170792286</v>
+        <v>75.06334170792285</v>
       </c>
       <c r="L27" t="n">
         <v>193.7531079096929</v>
@@ -6324,31 +6324,31 @@
         <v>801.5495631391819</v>
       </c>
       <c r="Q27" t="n">
-        <v>801.5495631391819</v>
+        <v>795.4246058560649</v>
       </c>
       <c r="R27" t="n">
-        <v>801.5495631391819</v>
+        <v>659.7398684615903</v>
       </c>
       <c r="S27" t="n">
-        <v>801.5495631391819</v>
+        <v>659.7398684615903</v>
       </c>
       <c r="T27" t="n">
-        <v>799.4437382695104</v>
+        <v>657.6340435919188</v>
       </c>
       <c r="U27" t="n">
-        <v>774.8306676894571</v>
+        <v>633.0209730118656</v>
       </c>
       <c r="V27" t="n">
-        <v>746.7617721644179</v>
+        <v>604.9520774868266</v>
       </c>
       <c r="W27" t="n">
-        <v>692.374025466036</v>
+        <v>335.553508217118</v>
       </c>
       <c r="X27" t="n">
-        <v>687.876853654059</v>
+        <v>331.0563364051412</v>
       </c>
       <c r="Y27" t="n">
-        <v>677.2469831607134</v>
+        <v>320.4264659117957</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K28" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="L28" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="M28" t="n">
-        <v>222.6795765141042</v>
+        <v>117.1608992936113</v>
       </c>
       <c r="N28" t="n">
-        <v>270.6328299641016</v>
+        <v>117.1608992936113</v>
       </c>
       <c r="O28" t="n">
-        <v>270.6328299641016</v>
+        <v>117.1608992936113</v>
       </c>
       <c r="P28" t="n">
-        <v>270.6328299641016</v>
+        <v>270.6328299641007</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.6328299641016</v>
+        <v>270.6328299641007</v>
       </c>
       <c r="R28" t="n">
-        <v>270.6328299641016</v>
+        <v>270.6328299641007</v>
       </c>
       <c r="S28" t="n">
-        <v>247.9206018387765</v>
+        <v>247.9206018387757</v>
       </c>
       <c r="T28" t="n">
-        <v>236.932487631616</v>
+        <v>236.9324876316153</v>
       </c>
       <c r="U28" t="n">
-        <v>160.3713220039569</v>
+        <v>160.3713220039564</v>
       </c>
       <c r="V28" t="n">
-        <v>127.7972807526069</v>
+        <v>127.7972807526066</v>
       </c>
       <c r="W28" t="n">
-        <v>49.56496484985757</v>
+        <v>49.56496484985732</v>
       </c>
       <c r="X28" t="n">
-        <v>40.41472135225246</v>
+        <v>40.41472135225233</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="29">
@@ -6443,61 +6443,61 @@
         <v>886.1595461907651</v>
       </c>
       <c r="D29" t="n">
-        <v>759.9863691234787</v>
+        <v>759.9863691234785</v>
       </c>
       <c r="E29" t="n">
-        <v>599.7659673901221</v>
+        <v>599.7659673901223</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5048206281019</v>
+        <v>407.5048206281022</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4586982720945</v>
+        <v>199.4586982720948</v>
       </c>
       <c r="H29" t="n">
-        <v>64.06489698532373</v>
+        <v>64.06489698532359</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8005131365275</v>
+        <v>171.8005131365276</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3583775511677</v>
+        <v>377.3583775511679</v>
       </c>
       <c r="L29" t="n">
-        <v>636.6544414676671</v>
+        <v>636.6544414676663</v>
       </c>
       <c r="M29" t="n">
-        <v>930.2992674717248</v>
+        <v>930.299267471724</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.443271931582</v>
+        <v>1218.443271931581</v>
       </c>
       <c r="O29" t="n">
-        <v>1465.363879823419</v>
+        <v>1465.363879823418</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.834462498259</v>
+        <v>1662.834462498258</v>
       </c>
       <c r="Q29" t="n">
-        <v>1786.013205691</v>
+        <v>1786.013205690999</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968433</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.013473208037</v>
+        <v>1790.013473208036</v>
       </c>
       <c r="T29" t="n">
         <v>1780.363449404579</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.697910668954</v>
+        <v>1742.697910668953</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.587739695682</v>
+        <v>1633.587739695681</v>
       </c>
       <c r="W29" t="n">
         <v>1507.289002847042</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>462.2361605893864</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C30" t="n">
-        <v>462.2361605893864</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D30" t="n">
-        <v>336.5981307362319</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E30" t="n">
-        <v>163.0349268576464</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F30" t="n">
-        <v>163.0349268576464</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G30" t="n">
-        <v>163.0349268576464</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K30" t="n">
-        <v>75.06334170792286</v>
+        <v>75.06334170792285</v>
       </c>
       <c r="L30" t="n">
         <v>193.7531079096929</v>
@@ -6564,28 +6564,28 @@
         <v>801.5495631391819</v>
       </c>
       <c r="R30" t="n">
-        <v>801.5495631391819</v>
+        <v>665.8648257447073</v>
       </c>
       <c r="S30" t="n">
-        <v>801.5495631391819</v>
+        <v>665.8648257447073</v>
       </c>
       <c r="T30" t="n">
-        <v>799.4437382695103</v>
+        <v>663.7590008750358</v>
       </c>
       <c r="U30" t="n">
-        <v>559.8198451181302</v>
+        <v>639.1459302949826</v>
       </c>
       <c r="V30" t="n">
-        <v>531.7509495930909</v>
+        <v>396.0662121986167</v>
       </c>
       <c r="W30" t="n">
-        <v>477.3632028947089</v>
+        <v>341.6784655002348</v>
       </c>
       <c r="X30" t="n">
-        <v>472.866031082732</v>
+        <v>261.731617984041</v>
       </c>
       <c r="Y30" t="n">
-        <v>462.2361605893864</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J31" t="n">
-        <v>75.45396469873543</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K31" t="n">
-        <v>75.45396469873543</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="L31" t="n">
-        <v>75.45396469873543</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="M31" t="n">
-        <v>75.45396469873543</v>
+        <v>185.406841880706</v>
       </c>
       <c r="N31" t="n">
-        <v>270.6328299641017</v>
+        <v>185.406841880706</v>
       </c>
       <c r="O31" t="n">
-        <v>270.6328299641017</v>
+        <v>185.406841880706</v>
       </c>
       <c r="P31" t="n">
-        <v>270.6328299641017</v>
+        <v>185.406841880706</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.6328299641017</v>
+        <v>270.6328299641009</v>
       </c>
       <c r="R31" t="n">
-        <v>270.6328299641017</v>
+        <v>270.6328299641009</v>
       </c>
       <c r="S31" t="n">
-        <v>247.9206018387766</v>
+        <v>247.9206018387759</v>
       </c>
       <c r="T31" t="n">
-        <v>236.9324876316161</v>
+        <v>236.9324876316155</v>
       </c>
       <c r="U31" t="n">
-        <v>160.371322003957</v>
+        <v>160.3713220039565</v>
       </c>
       <c r="V31" t="n">
-        <v>127.797280752607</v>
+        <v>127.7972807526066</v>
       </c>
       <c r="W31" t="n">
-        <v>49.56496484985762</v>
+        <v>49.56496484985738</v>
       </c>
       <c r="X31" t="n">
-        <v>40.41472135225249</v>
+        <v>40.41472135225236</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="32">
@@ -6674,73 +6674,73 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.891650267094</v>
+        <v>1024.891650267093</v>
       </c>
       <c r="C32" t="n">
-        <v>886.1595461907655</v>
+        <v>886.1595461907647</v>
       </c>
       <c r="D32" t="n">
-        <v>759.9863691234788</v>
+        <v>759.986369123478</v>
       </c>
       <c r="E32" t="n">
-        <v>599.7659673901225</v>
+        <v>599.7659673901217</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5048206281022</v>
+        <v>407.5048206281015</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4586982720946</v>
+        <v>199.4586982720948</v>
       </c>
       <c r="H32" t="n">
-        <v>64.06489698532368</v>
+        <v>64.06489698532371</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8005131365275</v>
+        <v>171.8005131365274</v>
       </c>
       <c r="K32" t="n">
-        <v>377.358377551169</v>
+        <v>377.3583775511676</v>
       </c>
       <c r="L32" t="n">
-        <v>636.6544414676684</v>
+        <v>636.654441467667</v>
       </c>
       <c r="M32" t="n">
-        <v>930.2992674717257</v>
+        <v>930.2992674717245</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.443271931582</v>
+        <v>1218.443271931581</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.363879823419</v>
+        <v>1465.363879823418</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.834462498259</v>
+        <v>1662.834462498258</v>
       </c>
       <c r="Q32" t="n">
-        <v>1786.013205691</v>
+        <v>1786.013205690999</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968433</v>
       </c>
       <c r="S32" t="n">
-        <v>1790.013473208037</v>
+        <v>1790.013473208036</v>
       </c>
       <c r="T32" t="n">
-        <v>1780.36344940458</v>
+        <v>1780.363449404579</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.697910668954</v>
+        <v>1742.697910668953</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.587739695683</v>
+        <v>1633.587739695682</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.289002847043</v>
+        <v>1507.289002847042</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.882942292404</v>
+        <v>1358.882942292403</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.746727067316</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C33" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D33" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E33" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K33" t="n">
-        <v>75.06334170792286</v>
+        <v>75.06334170792285</v>
       </c>
       <c r="L33" t="n">
         <v>193.7531079096929</v>
@@ -6807,22 +6807,22 @@
         <v>801.5495631391819</v>
       </c>
       <c r="T33" t="n">
-        <v>584.4329156981836</v>
+        <v>799.4437382695103</v>
       </c>
       <c r="U33" t="n">
-        <v>344.8090225468035</v>
+        <v>563.6962545907659</v>
       </c>
       <c r="V33" t="n">
-        <v>316.7401270217642</v>
+        <v>320.6165364943999</v>
       </c>
       <c r="W33" t="n">
-        <v>51.21796722469129</v>
+        <v>51.21796722469121</v>
       </c>
       <c r="X33" t="n">
-        <v>46.72079541271434</v>
+        <v>46.72079541271429</v>
       </c>
       <c r="Y33" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C34" t="n">
-        <v>40.3205993191015</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D34" t="n">
-        <v>40.3205993191015</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E34" t="n">
-        <v>40.3205993191015</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F34" t="n">
-        <v>40.3205993191015</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G34" t="n">
-        <v>84.04417836936653</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H34" t="n">
-        <v>84.04417836936653</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I34" t="n">
-        <v>84.04417836936653</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J34" t="n">
-        <v>84.04417836936653</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K34" t="n">
-        <v>84.04417836936653</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="L34" t="n">
-        <v>84.04417836936653</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="M34" t="n">
-        <v>270.632829964102</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="N34" t="n">
-        <v>270.632829964102</v>
+        <v>86.69229409246074</v>
       </c>
       <c r="O34" t="n">
-        <v>270.632829964102</v>
+        <v>261.0608186465668</v>
       </c>
       <c r="P34" t="n">
-        <v>270.632829964102</v>
+        <v>261.0608186465668</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.632829964102</v>
+        <v>261.0608186465668</v>
       </c>
       <c r="R34" t="n">
-        <v>270.632829964102</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="S34" t="n">
-        <v>247.9206018387768</v>
+        <v>247.9206018387766</v>
       </c>
       <c r="T34" t="n">
-        <v>236.9324876316163</v>
+        <v>236.9324876316161</v>
       </c>
       <c r="U34" t="n">
-        <v>160.3713220039571</v>
+        <v>160.3713220039569</v>
       </c>
       <c r="V34" t="n">
-        <v>127.7972807526071</v>
+        <v>127.797280752607</v>
       </c>
       <c r="W34" t="n">
-        <v>49.56496484985768</v>
+        <v>49.5649648498576</v>
       </c>
       <c r="X34" t="n">
-        <v>40.41472135225252</v>
+        <v>40.41472135225247</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09092491936868</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>821.158653286607</v>
+        <v>821.1586532866072</v>
       </c>
       <c r="C35" t="n">
-        <v>710.4005212762333</v>
+        <v>710.4005212762336</v>
       </c>
       <c r="D35" t="n">
         <v>612.2013162749017</v>
       </c>
       <c r="E35" t="n">
-        <v>479.9548866075004</v>
+        <v>479.9548866075002</v>
       </c>
       <c r="F35" t="n">
-        <v>315.6677119114354</v>
+        <v>315.667711911435</v>
       </c>
       <c r="G35" t="n">
-        <v>135.595561621383</v>
+        <v>135.5955616213833</v>
       </c>
       <c r="H35" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I35" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J35" t="n">
         <v>191.3026106395686</v>
@@ -6944,43 +6944,43 @@
         <v>472.8417217903934</v>
       </c>
       <c r="M35" t="n">
-        <v>604.4695675149894</v>
+        <v>793.9038378162935</v>
       </c>
       <c r="N35" t="n">
-        <v>920.0308619966886</v>
+        <v>871.3157350739929</v>
       </c>
       <c r="O35" t="n">
-        <v>956.2193626863681</v>
+        <v>987.352383817819</v>
       </c>
       <c r="P35" t="n">
-        <v>1181.107235383051</v>
+        <v>1212.240256514502</v>
       </c>
       <c r="Q35" t="n">
-        <v>1331.703268597635</v>
+        <v>1362.836289729086</v>
       </c>
       <c r="R35" t="n">
-        <v>1377.653598896911</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="S35" t="n">
-        <v>1390.827318336289</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="T35" t="n">
         <v>1408.786620028362</v>
       </c>
       <c r="U35" t="n">
-        <v>1399.095053358692</v>
+        <v>1399.095053358691</v>
       </c>
       <c r="V35" t="n">
         <v>1317.958854451375</v>
       </c>
       <c r="W35" t="n">
-        <v>1219.63408966869</v>
+        <v>1219.634089668691</v>
       </c>
       <c r="X35" t="n">
-        <v>1099.202001180006</v>
+        <v>1099.202001180007</v>
       </c>
       <c r="Y35" t="n">
-        <v>956.039758020874</v>
+        <v>956.0397580208743</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.17573240056725</v>
+        <v>220.9166667095269</v>
       </c>
       <c r="C36" t="n">
-        <v>28.17573240056725</v>
+        <v>31.50439244249063</v>
       </c>
       <c r="D36" t="n">
-        <v>28.17573240056725</v>
+        <v>31.50439244249063</v>
       </c>
       <c r="E36" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="F36" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="G36" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="H36" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I36" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J36" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="K36" t="n">
         <v>67.14814918912143</v>
@@ -7038,28 +7038,28 @@
         <v>793.6343706203805</v>
       </c>
       <c r="R36" t="n">
-        <v>793.6343706203805</v>
+        <v>657.9496332259059</v>
       </c>
       <c r="S36" t="n">
-        <v>793.6343706203805</v>
+        <v>464.5420122420363</v>
       </c>
       <c r="T36" t="n">
-        <v>793.6343706203805</v>
+        <v>247.4253648010379</v>
       </c>
       <c r="U36" t="n">
-        <v>793.6343706203805</v>
+        <v>247.4253648010379</v>
       </c>
       <c r="V36" t="n">
-        <v>742.7229891182519</v>
+        <v>247.3304413419538</v>
       </c>
       <c r="W36" t="n">
-        <v>473.3244198485432</v>
+        <v>220.9166667095269</v>
       </c>
       <c r="X36" t="n">
-        <v>253.8164254652396</v>
+        <v>220.9166667095269</v>
       </c>
       <c r="Y36" t="n">
-        <v>28.17573240056725</v>
+        <v>220.9166667095269</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="C37" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="D37" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="E37" t="n">
-        <v>28.17573240056725</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="F37" t="n">
-        <v>28.17573240056725</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="G37" t="n">
-        <v>28.17573240056725</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="H37" t="n">
-        <v>28.17573240056725</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="I37" t="n">
-        <v>28.17573240056725</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="J37" t="n">
-        <v>28.17573240056725</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="K37" t="n">
-        <v>28.17573240056725</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="L37" t="n">
-        <v>28.17573240056725</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="M37" t="n">
-        <v>28.17573240056725</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="N37" t="n">
-        <v>28.17573240056725</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="O37" t="n">
-        <v>28.17573240056725</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="P37" t="n">
-        <v>28.17573240056725</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="Q37" t="n">
-        <v>131.6213389844606</v>
+        <v>77.98419835767848</v>
       </c>
       <c r="R37" t="n">
-        <v>131.6213389844606</v>
+        <v>114.973499697056</v>
       </c>
       <c r="S37" t="n">
-        <v>131.6213389844606</v>
+        <v>114.973499697056</v>
       </c>
       <c r="T37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="U37" t="n">
-        <v>83.0341454227565</v>
+        <v>83.03414542275644</v>
       </c>
       <c r="V37" t="n">
-        <v>78.43407623736158</v>
+        <v>78.43407623736155</v>
       </c>
       <c r="W37" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="X37" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>821.1586532866077</v>
       </c>
       <c r="C38" t="n">
-        <v>710.400521276234</v>
+        <v>710.4005212762339</v>
       </c>
       <c r="D38" t="n">
-        <v>612.2013162749024</v>
+        <v>612.2013162749023</v>
       </c>
       <c r="E38" t="n">
-        <v>479.9548866075012</v>
+        <v>479.9548866075011</v>
       </c>
       <c r="F38" t="n">
-        <v>315.667711911436</v>
+        <v>315.6677119114359</v>
       </c>
       <c r="G38" t="n">
         <v>135.5955616213833</v>
@@ -7178,16 +7178,16 @@
         <v>424.2777650760514</v>
       </c>
       <c r="L38" t="n">
-        <v>472.8417217903934</v>
+        <v>508.2953241857718</v>
       </c>
       <c r="M38" t="n">
-        <v>555.7544405922937</v>
+        <v>591.2080429876721</v>
       </c>
       <c r="N38" t="n">
-        <v>681.8814647726888</v>
+        <v>906.7693374693713</v>
       </c>
       <c r="O38" t="n">
-        <v>956.2193626863681</v>
+        <v>1181.107235383051</v>
       </c>
       <c r="P38" t="n">
         <v>1181.107235383051</v>
@@ -7217,7 +7217,7 @@
         <v>1099.202001180007</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.0397580208747</v>
+        <v>956.0397580208748</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>378.3681229065718</v>
+        <v>61.27538001609224</v>
       </c>
       <c r="C39" t="n">
-        <v>188.9558486395355</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="D39" t="n">
         <v>28.17573240056725</v>
@@ -7272,31 +7272,31 @@
         <v>793.6343706203805</v>
       </c>
       <c r="Q39" t="n">
-        <v>793.6343706203805</v>
+        <v>787.5094133372635</v>
       </c>
       <c r="R39" t="n">
-        <v>793.6343706203805</v>
+        <v>787.5094133372635</v>
       </c>
       <c r="S39" t="n">
-        <v>793.6343706203805</v>
+        <v>787.5094133372635</v>
       </c>
       <c r="T39" t="n">
-        <v>793.6343706203805</v>
+        <v>570.3927658962651</v>
       </c>
       <c r="U39" t="n">
-        <v>793.6343706203805</v>
+        <v>330.768872744885</v>
       </c>
       <c r="V39" t="n">
-        <v>793.5394471612964</v>
+        <v>330.6739492858009</v>
       </c>
       <c r="W39" t="n">
-        <v>767.1256725288695</v>
+        <v>61.27538001609224</v>
       </c>
       <c r="X39" t="n">
-        <v>767.1256725288695</v>
+        <v>61.27538001609224</v>
       </c>
       <c r="Y39" t="n">
-        <v>556.9039758335068</v>
+        <v>61.27538001609224</v>
       </c>
     </row>
     <row r="40">
@@ -7348,16 +7348,16 @@
         <v>28.17573240056725</v>
       </c>
       <c r="P40" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.82716312146708</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="R40" t="n">
-        <v>109.8164644608446</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="S40" t="n">
-        <v>114.973499697056</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="T40" t="n">
         <v>131.6213389844605</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>821.158653286607</v>
+        <v>821.1586532866079</v>
       </c>
       <c r="C41" t="n">
-        <v>710.4005212762335</v>
+        <v>710.4005212762339</v>
       </c>
       <c r="D41" t="n">
-        <v>612.201316274902</v>
+        <v>612.2013162749022</v>
       </c>
       <c r="E41" t="n">
-        <v>479.9548866075008</v>
+        <v>479.954886607501</v>
       </c>
       <c r="F41" t="n">
         <v>315.6677119114357</v>
       </c>
       <c r="G41" t="n">
-        <v>135.5955616213833</v>
+        <v>135.5955616213834</v>
       </c>
       <c r="H41" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I41" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J41" t="n">
-        <v>191.3026106395686</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2777650760514</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="L41" t="n">
-        <v>521.5568487130889</v>
+        <v>314.8890863389092</v>
       </c>
       <c r="M41" t="n">
-        <v>604.4695675149892</v>
+        <v>635.9512023648094</v>
       </c>
       <c r="N41" t="n">
-        <v>681.8814647726886</v>
+        <v>741.0055145113432</v>
       </c>
       <c r="O41" t="n">
-        <v>956.2193626863678</v>
+        <v>1015.343412425023</v>
       </c>
       <c r="P41" t="n">
-        <v>1181.10723538305</v>
+        <v>1240.231285121705</v>
       </c>
       <c r="Q41" t="n">
-        <v>1331.703268597634</v>
+        <v>1390.827318336289</v>
       </c>
       <c r="R41" t="n">
-        <v>1377.653598896911</v>
+        <v>1390.827318336289</v>
       </c>
       <c r="S41" t="n">
-        <v>1390.827318336288</v>
+        <v>1390.827318336289</v>
       </c>
       <c r="T41" t="n">
-        <v>1408.786620028362</v>
+        <v>1408.786620028363</v>
       </c>
       <c r="U41" t="n">
         <v>1399.095053358692</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.958854451375</v>
+        <v>1317.958854451376</v>
       </c>
       <c r="W41" t="n">
-        <v>1219.63408966869</v>
+        <v>1219.634089668692</v>
       </c>
       <c r="X41" t="n">
-        <v>1099.202001180006</v>
+        <v>1099.202001180008</v>
       </c>
       <c r="Y41" t="n">
-        <v>956.039758020874</v>
+        <v>956.0397580208752</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>217.5880066676035</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="C42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="D42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="E42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="F42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="G42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="H42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K42" t="n">
-        <v>67.14814918912143</v>
+        <v>67.14814918912148</v>
       </c>
       <c r="L42" t="n">
-        <v>185.8379153908915</v>
+        <v>185.8379153908916</v>
       </c>
       <c r="M42" t="n">
-        <v>369.0979385312079</v>
+        <v>369.0979385312081</v>
       </c>
       <c r="N42" t="n">
-        <v>575.6281987437105</v>
+        <v>575.6281987437108</v>
       </c>
       <c r="O42" t="n">
-        <v>708.815955516376</v>
+        <v>708.8159555163763</v>
       </c>
       <c r="P42" t="n">
-        <v>793.6343706203805</v>
+        <v>793.634370620381</v>
       </c>
       <c r="Q42" t="n">
-        <v>787.5094133372635</v>
+        <v>787.509413337264</v>
       </c>
       <c r="R42" t="n">
-        <v>787.5094133372635</v>
+        <v>651.8246759427896</v>
       </c>
       <c r="S42" t="n">
-        <v>726.7053925477765</v>
+        <v>540.6540197666418</v>
       </c>
       <c r="T42" t="n">
-        <v>726.7053925477765</v>
+        <v>540.6540197666418</v>
       </c>
       <c r="U42" t="n">
-        <v>487.0814993963963</v>
+        <v>540.6540197666418</v>
       </c>
       <c r="V42" t="n">
-        <v>244.0017813000304</v>
+        <v>297.5743016702759</v>
       </c>
       <c r="W42" t="n">
-        <v>217.5880066676035</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="X42" t="n">
-        <v>217.5880066676035</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="Y42" t="n">
-        <v>217.5880066676035</v>
+        <v>28.17573240056726</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="C43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="D43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="E43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="F43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="G43" t="n">
-        <v>99.31660147267488</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="H43" t="n">
-        <v>99.31660147267488</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I43" t="n">
-        <v>99.31660147267488</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J43" t="n">
-        <v>99.31660147267488</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K43" t="n">
-        <v>99.31660147267488</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="L43" t="n">
-        <v>99.31660147267488</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="M43" t="n">
-        <v>99.31660147267488</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="N43" t="n">
-        <v>99.31660147267488</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="O43" t="n">
-        <v>99.31660147267488</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="P43" t="n">
-        <v>99.31660147267488</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="R43" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="S43" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="T43" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="U43" t="n">
-        <v>83.03414542275644</v>
+        <v>83.03414542275657</v>
       </c>
       <c r="V43" t="n">
-        <v>78.43407623736155</v>
+        <v>78.43407623736162</v>
       </c>
       <c r="W43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="X43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>821.1586532866072</v>
+        <v>821.1586532866081</v>
       </c>
       <c r="C44" t="n">
-        <v>710.4005212762336</v>
+        <v>710.4005212762347</v>
       </c>
       <c r="D44" t="n">
-        <v>612.201316274902</v>
+        <v>612.2013162749029</v>
       </c>
       <c r="E44" t="n">
-        <v>479.9548866075004</v>
+        <v>479.9548866075013</v>
       </c>
       <c r="F44" t="n">
-        <v>315.6677119114352</v>
+        <v>315.6677119114361</v>
       </c>
       <c r="G44" t="n">
-        <v>135.5955616213834</v>
+        <v>135.5955616213837</v>
       </c>
       <c r="H44" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I44" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J44" t="n">
         <v>191.3026106395687</v>
       </c>
       <c r="K44" t="n">
-        <v>424.2777650760514</v>
+        <v>424.2777650760515</v>
       </c>
       <c r="L44" t="n">
-        <v>710.9911190143933</v>
+        <v>710.9911190143935</v>
       </c>
       <c r="M44" t="n">
-        <v>842.6189647389892</v>
+        <v>1032.053235040294</v>
       </c>
       <c r="N44" t="n">
-        <v>920.0308619966886</v>
+        <v>1109.465132297993</v>
       </c>
       <c r="O44" t="n">
-        <v>956.2193626863681</v>
+        <v>1199.066537075125</v>
       </c>
       <c r="P44" t="n">
-        <v>1181.107235383051</v>
+        <v>1199.066537075125</v>
       </c>
       <c r="Q44" t="n">
-        <v>1331.703268597635</v>
+        <v>1349.662570289709</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.653598896911</v>
+        <v>1395.612900588985</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.827318336289</v>
+        <v>1408.786620028363</v>
       </c>
       <c r="T44" t="n">
-        <v>1408.786620028362</v>
+        <v>1408.786620028363</v>
       </c>
       <c r="U44" t="n">
         <v>1399.095053358692</v>
       </c>
       <c r="V44" t="n">
-        <v>1317.958854451375</v>
+        <v>1317.958854451376</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.634089668691</v>
+        <v>1219.634089668692</v>
       </c>
       <c r="X44" t="n">
-        <v>1099.202001180007</v>
+        <v>1099.202001180008</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.0397580208743</v>
+        <v>956.0397580208752</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>217.5880066676035</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="C45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="D45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="E45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="F45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="G45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="H45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K45" t="n">
-        <v>67.14814918912144</v>
+        <v>67.14814918912148</v>
       </c>
       <c r="L45" t="n">
-        <v>185.8379153908915</v>
+        <v>185.8379153908916</v>
       </c>
       <c r="M45" t="n">
-        <v>369.097938531208</v>
+        <v>369.0979385312081</v>
       </c>
       <c r="N45" t="n">
-        <v>575.6281987437105</v>
+        <v>575.6281987437108</v>
       </c>
       <c r="O45" t="n">
-        <v>708.815955516376</v>
+        <v>708.8159555163763</v>
       </c>
       <c r="P45" t="n">
-        <v>793.6343706203805</v>
+        <v>793.634370620381</v>
       </c>
       <c r="Q45" t="n">
-        <v>787.5094133372635</v>
+        <v>787.509413337264</v>
       </c>
       <c r="R45" t="n">
-        <v>787.5094133372635</v>
+        <v>787.509413337264</v>
       </c>
       <c r="S45" t="n">
-        <v>787.5094133372635</v>
+        <v>594.1017923533946</v>
       </c>
       <c r="T45" t="n">
-        <v>787.5094133372635</v>
+        <v>594.1017923533946</v>
       </c>
       <c r="U45" t="n">
-        <v>547.8855201858834</v>
+        <v>458.8609764836857</v>
       </c>
       <c r="V45" t="n">
-        <v>304.8058020895174</v>
+        <v>458.7660530246016</v>
       </c>
       <c r="W45" t="n">
-        <v>217.5880066676035</v>
+        <v>432.3522783921747</v>
       </c>
       <c r="X45" t="n">
-        <v>217.5880066676035</v>
+        <v>432.3522783921747</v>
       </c>
       <c r="Y45" t="n">
-        <v>217.5880066676035</v>
+        <v>206.7115853275023</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>114.9734996970561</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="C46" t="n">
-        <v>114.9734996970561</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="D46" t="n">
-        <v>114.9734996970561</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="E46" t="n">
-        <v>114.9734996970561</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="F46" t="n">
-        <v>114.9734996970561</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="G46" t="n">
-        <v>114.9734996970561</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="H46" t="n">
-        <v>114.9734996970561</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="I46" t="n">
-        <v>114.9734996970561</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="J46" t="n">
-        <v>114.9734996970561</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="K46" t="n">
-        <v>114.9734996970561</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="L46" t="n">
-        <v>114.9734996970561</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="M46" t="n">
-        <v>114.9734996970561</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="N46" t="n">
-        <v>114.9734996970561</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="O46" t="n">
-        <v>114.9734996970561</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="P46" t="n">
-        <v>114.9734996970561</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="Q46" t="n">
-        <v>114.9734996970561</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="R46" t="n">
-        <v>114.9734996970561</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="S46" t="n">
-        <v>114.9734996970561</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="T46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="U46" t="n">
-        <v>83.0341454227565</v>
+        <v>83.03414542275645</v>
       </c>
       <c r="V46" t="n">
-        <v>78.43407623736158</v>
+        <v>78.43407623736157</v>
       </c>
       <c r="W46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="X46" t="n">
-        <v>46.62486877040699</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.8044059083801</v>
+        <v>28.17573240056726</v>
       </c>
     </row>
   </sheetData>
@@ -8772,19 +8772,19 @@
         <v>132.0073960199548</v>
       </c>
       <c r="L12" t="n">
-        <v>219.3557975125988</v>
+        <v>215.3582255334061</v>
       </c>
       <c r="M12" t="n">
-        <v>215.6056533098497</v>
+        <v>215.6056533098496</v>
       </c>
       <c r="N12" t="n">
-        <v>111.2646018516529</v>
+        <v>200.9373406025672</v>
       </c>
       <c r="O12" t="n">
-        <v>219.6296017271816</v>
+        <v>219.6296017271815</v>
       </c>
       <c r="P12" t="n">
-        <v>206.3638740786793</v>
+        <v>120.6887073069575</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,19 +9006,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>132.0073960199548</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>219.3557975125988</v>
+        <v>189.2568876825061</v>
       </c>
       <c r="M15" t="n">
-        <v>215.6056533098497</v>
+        <v>215.6056533098496</v>
       </c>
       <c r="N15" t="n">
-        <v>111.2646018516529</v>
+        <v>101.9974341175494</v>
       </c>
       <c r="O15" t="n">
-        <v>219.6296017271816</v>
+        <v>219.6296017271815</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9249,13 +9249,13 @@
         <v>219.3557975125988</v>
       </c>
       <c r="M18" t="n">
-        <v>125.9329145589353</v>
+        <v>215.6056533098496</v>
       </c>
       <c r="N18" t="n">
-        <v>200.9373406025673</v>
+        <v>111.2646018516528</v>
       </c>
       <c r="O18" t="n">
-        <v>219.6296017271816</v>
+        <v>219.6296017271815</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9480,19 +9480,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>132.0073960199548</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>129.6830587616844</v>
+        <v>120.4158910275809</v>
       </c>
       <c r="M21" t="n">
-        <v>215.6056533098497</v>
+        <v>185.5067434797569</v>
       </c>
       <c r="N21" t="n">
-        <v>200.9373406025673</v>
+        <v>200.9373406025672</v>
       </c>
       <c r="O21" t="n">
-        <v>219.6296017271816</v>
+        <v>219.6296017271815</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9717,19 +9717,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>132.0073960199548</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>219.3557975125988</v>
+        <v>120.4158910275809</v>
       </c>
       <c r="M24" t="n">
-        <v>215.6056533098497</v>
+        <v>215.6056533098496</v>
       </c>
       <c r="N24" t="n">
-        <v>200.9373406025673</v>
+        <v>200.9373406025672</v>
       </c>
       <c r="O24" t="n">
-        <v>129.9568629762672</v>
+        <v>189.5306918970888</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.79147670753349</v>
+        <v>173.7313831925514</v>
       </c>
       <c r="C11" t="n">
-        <v>149.8496401958969</v>
+        <v>139.3894132656181</v>
       </c>
       <c r="D11" t="n">
         <v>137.4163024569453</v>
@@ -23270,13 +23270,13 @@
         <v>202.8433924547315</v>
       </c>
       <c r="G11" t="n">
-        <v>119.530611807761</v>
+        <v>218.4705182927789</v>
       </c>
       <c r="H11" t="n">
         <v>146.5447204342349</v>
       </c>
       <c r="I11" t="n">
-        <v>40.199089505627</v>
+        <v>40.19908950562694</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.89230219312415</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>22.05838072575468</v>
+        <v>22.05838072575466</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>83.17139730046716</v>
+        <v>21.58401993885221</v>
       </c>
       <c r="W11" t="n">
-        <v>38.60070015546705</v>
+        <v>137.5406066404849</v>
       </c>
       <c r="X11" t="n">
-        <v>159.4268571094242</v>
+        <v>60.48695062440632</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.929710233168</v>
+        <v>82.98980374815008</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>173.7313831925514</v>
+        <v>74.79147670753355</v>
       </c>
       <c r="C14" t="n">
         <v>149.8496401958969</v>
       </c>
       <c r="D14" t="n">
-        <v>38.47639597192742</v>
+        <v>137.4163024569453</v>
       </c>
       <c r="E14" t="n">
-        <v>132.9274681632293</v>
+        <v>171.1230548763542</v>
       </c>
       <c r="F14" t="n">
         <v>202.8433924547315</v>
@@ -23510,10 +23510,10 @@
         <v>218.4705182927789</v>
       </c>
       <c r="H14" t="n">
-        <v>47.60481394921698</v>
+        <v>47.60481394921707</v>
       </c>
       <c r="I14" t="n">
-        <v>40.19908950562697</v>
+        <v>40.199089505627</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>22.05838072575468</v>
       </c>
       <c r="U14" t="n">
-        <v>49.79374050860076</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>120.5239264238701</v>
+        <v>21.58401993885224</v>
       </c>
       <c r="W14" t="n">
-        <v>137.5406066404849</v>
+        <v>137.540606640485</v>
       </c>
       <c r="X14" t="n">
-        <v>159.4268571094242</v>
+        <v>148.9666301791455</v>
       </c>
       <c r="Y14" t="n">
-        <v>82.98980374815002</v>
+        <v>181.929710233168</v>
       </c>
     </row>
     <row r="15">
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>909089.3830474429</v>
+        <v>909089.3830474428</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>909089.3830474429</v>
+        <v>909089.3830474428</v>
       </c>
     </row>
     <row r="7">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595304.0967441107</v>
+      </c>
+      <c r="C2" t="n">
         <v>595304.0967441105</v>
       </c>
-      <c r="C2" t="n">
-        <v>595304.0967441103</v>
-      </c>
       <c r="D2" t="n">
-        <v>595304.0967441103</v>
+        <v>595304.0967441102</v>
       </c>
       <c r="E2" t="n">
         <v>512993.3100888235</v>
       </c>
       <c r="F2" t="n">
-        <v>512993.3100888237</v>
+        <v>512993.3100888236</v>
       </c>
       <c r="G2" t="n">
-        <v>596510.0204795119</v>
+        <v>596510.0204795117</v>
       </c>
       <c r="H2" t="n">
         <v>596510.0204795118</v>
       </c>
       <c r="I2" t="n">
-        <v>596510.0204795121</v>
+        <v>596510.0204795118</v>
       </c>
       <c r="J2" t="n">
+        <v>596510.0204795118</v>
+      </c>
+      <c r="K2" t="n">
+        <v>596510.0204795119</v>
+      </c>
+      <c r="L2" t="n">
+        <v>596510.0204795112</v>
+      </c>
+      <c r="M2" t="n">
         <v>596510.0204795115</v>
       </c>
-      <c r="K2" t="n">
-        <v>596510.0204795108</v>
-      </c>
-      <c r="L2" t="n">
-        <v>596510.0204795105</v>
-      </c>
-      <c r="M2" t="n">
-        <v>596510.0204795114</v>
-      </c>
       <c r="N2" t="n">
-        <v>596510.0204795114</v>
+        <v>596510.0204795115</v>
       </c>
       <c r="O2" t="n">
-        <v>596510.0204795116</v>
+        <v>596510.0204795115</v>
       </c>
       <c r="P2" t="n">
         <v>596510.0204795116</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>273465.0445868051</v>
+        <v>273465.0445868052</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>103592.815743961</v>
+        <v>103592.8157439611</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>158845.8973352049</v>
+        <v>158845.8973352051</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>103592.815743961</v>
       </c>
       <c r="M3" t="n">
-        <v>22155.38587623641</v>
+        <v>22155.38587623632</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>66695.75573252974</v>
+        <v>66695.75573252984</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,28 +26433,28 @@
         <v>437118.4581698083</v>
       </c>
       <c r="H4" t="n">
-        <v>437118.4581698083</v>
+        <v>437118.4581698082</v>
       </c>
       <c r="I4" t="n">
-        <v>437118.4581698083</v>
+        <v>437118.4581698082</v>
       </c>
       <c r="J4" t="n">
         <v>436469.4452056574</v>
       </c>
       <c r="K4" t="n">
+        <v>436469.4452056574</v>
+      </c>
+      <c r="L4" t="n">
         <v>436469.4452056573</v>
       </c>
-      <c r="L4" t="n">
-        <v>436469.4452056572</v>
-      </c>
       <c r="M4" t="n">
-        <v>436027.6049897706</v>
+        <v>436027.6049897707</v>
       </c>
       <c r="N4" t="n">
         <v>436027.6049897707</v>
       </c>
       <c r="O4" t="n">
-        <v>436027.6049897707</v>
+        <v>436027.6049897706</v>
       </c>
       <c r="P4" t="n">
         <v>436027.6049897706</v>
@@ -26485,19 +26485,19 @@
         <v>36014.95438787361</v>
       </c>
       <c r="H5" t="n">
-        <v>36014.95438787361</v>
+        <v>36014.9543878736</v>
       </c>
       <c r="I5" t="n">
-        <v>36014.95438787361</v>
+        <v>36014.9543878736</v>
       </c>
       <c r="J5" t="n">
-        <v>47593.6013154428</v>
+        <v>47593.60131544279</v>
       </c>
       <c r="K5" t="n">
-        <v>47593.6013154428</v>
+        <v>47593.60131544279</v>
       </c>
       <c r="L5" t="n">
-        <v>47593.60131544279</v>
+        <v>47593.60131544278</v>
       </c>
       <c r="M5" t="n">
         <v>43906.28142019035</v>
@@ -26506,10 +26506,10 @@
         <v>43906.28142019036</v>
       </c>
       <c r="O5" t="n">
-        <v>43906.28142019035</v>
+        <v>43906.28142019036</v>
       </c>
       <c r="P5" t="n">
-        <v>43906.28142019035</v>
+        <v>43906.28142019037</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89134.33632745509</v>
+        <v>89129.86994325013</v>
       </c>
       <c r="C6" t="n">
-        <v>89134.33632745498</v>
+        <v>89129.8699432499</v>
       </c>
       <c r="D6" t="n">
-        <v>89134.33632745498</v>
+        <v>89129.86994324967</v>
       </c>
       <c r="E6" t="n">
-        <v>-152200.4000089732</v>
+        <v>-152509.7211585683</v>
       </c>
       <c r="F6" t="n">
-        <v>121264.6445778321</v>
+        <v>120955.3234282369</v>
       </c>
       <c r="G6" t="n">
-        <v>19783.79217786904</v>
+        <v>19783.79217786875</v>
       </c>
       <c r="H6" t="n">
-        <v>123376.6079218299</v>
+        <v>123376.6079218301</v>
       </c>
       <c r="I6" t="n">
-        <v>123376.6079218302</v>
+        <v>123376.60792183</v>
       </c>
       <c r="J6" t="n">
-        <v>-46398.92337679366</v>
+        <v>-46398.92337679342</v>
       </c>
       <c r="K6" t="n">
-        <v>112446.9739584107</v>
+        <v>112446.9739584117</v>
       </c>
       <c r="L6" t="n">
-        <v>8854.158214449504</v>
+        <v>8854.158214450159</v>
       </c>
       <c r="M6" t="n">
-        <v>94420.74819331401</v>
+        <v>94420.74819331407</v>
       </c>
       <c r="N6" t="n">
-        <v>116576.1340695503</v>
+        <v>116576.1340695504</v>
       </c>
       <c r="O6" t="n">
-        <v>49880.37833702087</v>
+        <v>49880.37833702069</v>
       </c>
       <c r="P6" t="n">
-        <v>116576.1340695507</v>
+        <v>116576.1340695506</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>200.355857185282</v>
+      </c>
+      <c r="F2" t="n">
         <v>200.3558571852819</v>
       </c>
-      <c r="F2" t="n">
-        <v>200.355857185282</v>
-      </c>
       <c r="G2" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="H2" t="n">
         <v>329.8468768652332</v>
@@ -26707,25 +26707,25 @@
         <v>329.8468768652332</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="K2" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="L2" t="n">
         <v>212.8607143456134</v>
       </c>
       <c r="M2" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="N2" t="n">
         <v>240.554946690909</v>
       </c>
       <c r="O2" t="n">
+        <v>240.5549466909089</v>
+      </c>
+      <c r="P2" t="n">
         <v>240.554946690909</v>
-      </c>
-      <c r="P2" t="n">
-        <v>240.5549466909089</v>
       </c>
     </row>
     <row r="3">
@@ -26774,7 +26774,7 @@
         <v>104.1060083670286</v>
       </c>
       <c r="O3" t="n">
-        <v>104.1060083670286</v>
+        <v>104.1060083670287</v>
       </c>
       <c r="P3" t="n">
         <v>104.1060083670287</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="F4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="G4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="H4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="I4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="J4" t="n">
-        <v>451.1365614921085</v>
+        <v>451.1365614921082</v>
       </c>
       <c r="K4" t="n">
-        <v>451.1365614921085</v>
+        <v>451.1365614921082</v>
       </c>
       <c r="L4" t="n">
-        <v>451.1365614921085</v>
+        <v>451.1365614921082</v>
       </c>
       <c r="M4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070904</v>
       </c>
       <c r="N4" t="n">
         <v>352.1966550070906</v>
       </c>
       <c r="O4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070907</v>
       </c>
       <c r="P4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070907</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>129.4910196799513</v>
+        <v>129.4910196799514</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.36969466566217</v>
+        <v>83.36969466566237</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>129.4910196799513</v>
       </c>
       <c r="M2" t="n">
-        <v>27.69423234529552</v>
+        <v>27.6942323452954</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566217</v>
+        <v>83.36969466566231</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.4910196799513</v>
+        <v>129.4910196799514</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566217</v>
+        <v>83.36969466566237</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,37 +28087,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="C11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="D11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="E11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="F11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="G11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="H11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="I11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="J11" t="n">
-        <v>174.7202286920871</v>
+        <v>75.78032220706916</v>
       </c>
       <c r="K11" t="n">
-        <v>50.49605588383684</v>
+        <v>5.226507866178949</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>45.26954801765768</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28129,7 +28129,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.39547932052248</v>
+        <v>112.3353858055403</v>
       </c>
       <c r="Q11" t="n">
         <v>88.43774142365251</v>
@@ -28138,25 +28138,25 @@
         <v>194.140471641135</v>
       </c>
       <c r="S11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="T11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="12">
@@ -28175,7 +28175,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>125.8756417292207</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28190,7 +28190,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.87880489469028</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R12" t="n">
         <v>134.3278900205298</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4735447740309</v>
+        <v>92.53363828901303</v>
       </c>
       <c r="T12" t="n">
-        <v>200.3558571852819</v>
+        <v>116.0055744815705</v>
       </c>
       <c r="U12" t="n">
-        <v>200.3558571852819</v>
+        <v>197.7687544276269</v>
       </c>
       <c r="V12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X12" t="n">
-        <v>118.3730079544527</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="13">
@@ -28251,7 +28251,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>200.3558571852819</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
@@ -28263,7 +28263,7 @@
         <v>168.6954829817093</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7773474488177</v>
+        <v>198.0736824539184</v>
       </c>
       <c r="I13" t="n">
         <v>164.6938248359117</v>
@@ -28272,13 +28272,13 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K13" t="n">
-        <v>142.478186851436</v>
+        <v>66.41515229588839</v>
       </c>
       <c r="L13" t="n">
-        <v>31.36504828657057</v>
+        <v>130.3049547715884</v>
       </c>
       <c r="M13" t="n">
-        <v>123.3272353814036</v>
+        <v>123.3272353814035</v>
       </c>
       <c r="N13" t="n">
         <v>15.71034539069795</v>
@@ -28287,34 +28287,34 @@
         <v>36.73089156368813</v>
       </c>
       <c r="P13" t="n">
-        <v>156.7784686382179</v>
+        <v>156.7784686382178</v>
       </c>
       <c r="Q13" t="n">
         <v>126.7738576957197</v>
       </c>
       <c r="R13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="S13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="T13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28324,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="C14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="D14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="E14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="F14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="G14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="H14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="I14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="J14" t="n">
-        <v>75.78032220706916</v>
+        <v>174.720228692087</v>
       </c>
       <c r="K14" t="n">
         <v>5.226507866178949</v>
@@ -28357,43 +28357,43 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>15.18968547299735</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>20.74607087118014</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>58.66502733818037</v>
+        <v>22.72927099400269</v>
       </c>
       <c r="Q14" t="n">
-        <v>187.3776479086704</v>
+        <v>88.43774142365251</v>
       </c>
       <c r="R14" t="n">
         <v>194.140471641135</v>
       </c>
       <c r="S14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="T14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="U14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="V14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="W14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="X14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="Y14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
     </row>
     <row r="15">
@@ -28415,7 +28415,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>59.88353263491044</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7382922638873</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R15" t="n">
         <v>134.3278900205298</v>
       </c>
       <c r="S15" t="n">
-        <v>110.5998670229501</v>
+        <v>92.53363828901303</v>
       </c>
       <c r="T15" t="n">
-        <v>200.355857185282</v>
+        <v>116.0055744815705</v>
       </c>
       <c r="U15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="V15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="W15" t="n">
-        <v>200.355857185282</v>
+        <v>197.768754427627</v>
       </c>
       <c r="X15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="Y15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
     </row>
     <row r="16">
@@ -28485,13 +28485,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="D16" t="n">
-        <v>200.355857185282</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -28500,7 +28500,7 @@
         <v>168.6954829817093</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7773474488177</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="I16" t="n">
         <v>164.6938248359117</v>
@@ -28509,49 +28509,49 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K16" t="n">
-        <v>66.41515229588839</v>
+        <v>70.49449186317655</v>
       </c>
       <c r="L16" t="n">
         <v>31.36504828657057</v>
       </c>
       <c r="M16" t="n">
-        <v>123.3272353814036</v>
+        <v>123.3272353814035</v>
       </c>
       <c r="N16" t="n">
-        <v>114.6502518757159</v>
+        <v>15.71034539069795</v>
       </c>
       <c r="O16" t="n">
-        <v>39.21192662967308</v>
+        <v>135.670798048706</v>
       </c>
       <c r="P16" t="n">
         <v>57.83856215320002</v>
       </c>
       <c r="Q16" t="n">
-        <v>200.355857185282</v>
+        <v>126.7738576957197</v>
       </c>
       <c r="R16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="S16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="T16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="U16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="V16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="W16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="X16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="C17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="D17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="E17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="F17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="G17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="H17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="I17" t="n">
-        <v>285.8244947085668</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="J17" t="n">
         <v>75.78032220706916</v>
@@ -28603,7 +28603,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.39547932052248</v>
+        <v>112.3353858055403</v>
       </c>
       <c r="Q17" t="n">
         <v>88.43774142365251</v>
@@ -28612,25 +28612,25 @@
         <v>194.140471641135</v>
       </c>
       <c r="S17" t="n">
-        <v>227.2481593784061</v>
+        <v>263.5506141399825</v>
       </c>
       <c r="T17" t="n">
-        <v>321.3541443960546</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U17" t="n">
         <v>250.1495976938827</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="W17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="X17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="Y17" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
     </row>
     <row r="18">
@@ -28646,7 +28646,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>78.08975315486073</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28688,25 +28688,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551195</v>
       </c>
       <c r="S18" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9454809665884</v>
+        <v>133.8629190448706</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276542198663</v>
+        <v>138.2877477348484</v>
       </c>
       <c r="V18" t="n">
-        <v>141.7090144303843</v>
+        <v>141.7090144303844</v>
       </c>
       <c r="W18" t="n">
-        <v>167.7646770919937</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>118.3730079544527</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28831,7 +28831,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>15.18968547299735</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.39547932052248</v>
+        <v>43.47534186518282</v>
       </c>
       <c r="Q20" t="n">
         <v>88.43774142365251</v>
@@ -28849,13 +28849,13 @@
         <v>194.140471641135</v>
       </c>
       <c r="S20" t="n">
-        <v>326.188065863424</v>
+        <v>326.1880658634239</v>
       </c>
       <c r="T20" t="n">
         <v>222.4142379110366</v>
       </c>
       <c r="U20" t="n">
-        <v>295.4191457115406</v>
+        <v>250.1495976938827</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -28883,13 +28883,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>60.23240859156064</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>84.68130220779598</v>
       </c>
       <c r="F21" t="n">
-        <v>59.88353263491044</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7382922638873</v>
@@ -28898,7 +28898,7 @@
         <v>125.6745619188949</v>
       </c>
       <c r="I21" t="n">
-        <v>8.206175550612514</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J21" t="n">
         <v>51.87880489469028</v>
@@ -28922,10 +28922,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R21" t="n">
-        <v>53.24532809881195</v>
+        <v>35.38798353551194</v>
       </c>
       <c r="S21" t="n">
         <v>191.4735447740309</v>
@@ -28934,7 +28934,7 @@
         <v>214.9454809665884</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2276542198663</v>
+        <v>138.2877477348484</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -28946,7 +28946,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>124.4443796490078</v>
       </c>
     </row>
     <row r="22">
@@ -29059,7 +29059,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="J23" t="n">
-        <v>112.0827769686457</v>
+        <v>75.78032220706916</v>
       </c>
       <c r="K23" t="n">
         <v>5.226507866178949</v>
@@ -29074,7 +29074,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>45.26954801765773</v>
       </c>
       <c r="P23" t="n">
         <v>13.39547932052248</v>
@@ -29083,19 +29083,19 @@
         <v>88.43774142365251</v>
       </c>
       <c r="R23" t="n">
-        <v>194.140471641135</v>
+        <v>293.0803781261529</v>
       </c>
       <c r="S23" t="n">
         <v>227.2481593784061</v>
       </c>
       <c r="T23" t="n">
-        <v>321.3541443960546</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U23" t="n">
         <v>250.1495976938827</v>
       </c>
       <c r="V23" t="n">
-        <v>329.8468768652332</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>329.8468768652332</v>
@@ -29162,22 +29162,22 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551194</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4735447740309</v>
+        <v>92.53363828901301</v>
       </c>
       <c r="T24" t="n">
-        <v>127.7992113345847</v>
+        <v>116.0055744815705</v>
       </c>
       <c r="U24" t="n">
-        <v>138.2877477348484</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V24" t="n">
-        <v>141.7090144303843</v>
+        <v>153.5026512833986</v>
       </c>
       <c r="W24" t="n">
-        <v>167.7646770919937</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456125</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="M26" t="n">
-        <v>212.860714345614</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
     </row>
     <row r="27">
@@ -29351,19 +29351,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>82.77646033952892</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>42.59697990174131</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7382922638873</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T27" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="V27" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8607143456135</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
     </row>
     <row r="28">
@@ -29463,16 +29463,16 @@
         <v>31.36504828657057</v>
       </c>
       <c r="M28" t="n">
-        <v>212.8607143456135</v>
+        <v>106.2761919006711</v>
       </c>
       <c r="N28" t="n">
-        <v>64.14797513817007</v>
+        <v>15.71034539069795</v>
       </c>
       <c r="O28" t="n">
         <v>36.73089156368813</v>
       </c>
       <c r="P28" t="n">
-        <v>57.83856215320002</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Q28" t="n">
         <v>126.7738576957197</v>
@@ -29481,25 +29481,25 @@
         <v>203.1920160450731</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456125</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8607143456142</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
     </row>
     <row r="30">
@@ -29594,10 +29594,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>34.79066552195562</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29606,7 +29606,7 @@
         <v>148.7382922638873</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6745619188949</v>
       </c>
       <c r="I30" t="n">
         <v>107.1460820356304</v>
@@ -29636,28 +29636,28 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="V30" t="n">
-        <v>212.8607143456134</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="X30" t="n">
-        <v>212.8607143456134</v>
+        <v>138.1655353984388</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.8607143456134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29691,7 +29691,7 @@
         <v>164.6938248359117</v>
       </c>
       <c r="J31" t="n">
-        <v>159.6261132818644</v>
+        <v>119.8654670400798</v>
       </c>
       <c r="K31" t="n">
         <v>66.41515229588839</v>
@@ -29700,10 +29700,10 @@
         <v>31.36504828657057</v>
       </c>
       <c r="M31" t="n">
-        <v>24.38732889638567</v>
+        <v>175.2114874431911</v>
       </c>
       <c r="N31" t="n">
-        <v>212.8607143456134</v>
+        <v>15.71034539069795</v>
       </c>
       <c r="O31" t="n">
         <v>36.73089156368813</v>
@@ -29712,31 +29712,31 @@
         <v>57.83856215320002</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.7738576957197</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="R31" t="n">
         <v>203.1920160450731</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456136</v>
       </c>
     </row>
     <row r="32">
@@ -29879,16 +29879,16 @@
         <v>191.4735447740309</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>3.837645377909325</v>
       </c>
       <c r="V33" t="n">
-        <v>212.8607143456134</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>3.837645377909382</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>212.8607143456134</v>
@@ -29907,7 +29907,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>170.7295793555409</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -29919,7 +29919,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>212.8607143456134</v>
+        <v>168.6954829817093</v>
       </c>
       <c r="H34" t="n">
         <v>165.7773474488177</v>
@@ -29937,13 +29937,13 @@
         <v>31.36504828657057</v>
       </c>
       <c r="M34" t="n">
+        <v>24.38732889638567</v>
+      </c>
+      <c r="N34" t="n">
+        <v>66.82283950493238</v>
+      </c>
+      <c r="O34" t="n">
         <v>212.8607143456134</v>
-      </c>
-      <c r="N34" t="n">
-        <v>15.71034539069795</v>
-      </c>
-      <c r="O34" t="n">
-        <v>36.73089156368813</v>
       </c>
       <c r="P34" t="n">
         <v>57.83856215320002</v>
@@ -29952,7 +29952,7 @@
         <v>126.7738576957197</v>
       </c>
       <c r="R34" t="n">
-        <v>203.1920160450731</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="S34" t="n">
         <v>212.8607143456134</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="C35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="D35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="E35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="F35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="G35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="H35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="I35" t="n">
         <v>240.5549466909089</v>
       </c>
       <c r="J35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="K35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>49.20719891181392</v>
+        <v>240.554946690909</v>
       </c>
       <c r="N35" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>80.65469500418855</v>
       </c>
       <c r="P35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="R35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="S35" t="n">
-        <v>240.5549466909089</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T35" t="n">
-        <v>240.5549466909089</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Y35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
     </row>
     <row r="36">
@@ -30065,13 +30065,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>168.5321983982955</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30110,28 +30110,28 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4735447740309</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9454809665884</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2276542198663</v>
       </c>
       <c r="V36" t="n">
-        <v>190.2466532282949</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30150,7 +30150,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>191.9877229870849</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
@@ -30186,25 +30186,25 @@
         <v>57.83856215320002</v>
       </c>
       <c r="Q37" t="n">
-        <v>231.264369396622</v>
+        <v>126.7738576957197</v>
       </c>
       <c r="R37" t="n">
-        <v>203.1920160450731</v>
+        <v>240.554946690909</v>
       </c>
       <c r="S37" t="n">
         <v>235.3458201896853</v>
       </c>
       <c r="T37" t="n">
-        <v>223.7389474107024</v>
+        <v>240.554946690909</v>
       </c>
       <c r="U37" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V37" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W37" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30250,19 +30250,19 @@
         <v>240.554946690909</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>35.81171959129132</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>49.2071989118139</v>
+        <v>240.554946690909</v>
       </c>
       <c r="O38" t="n">
         <v>240.554946690909</v>
       </c>
       <c r="P38" t="n">
-        <v>240.554946690909</v>
+        <v>13.39547932052248</v>
       </c>
       <c r="Q38" t="n">
         <v>240.554946690909</v>
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>154.7495003849962</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.3278900205298</v>
@@ -30353,22 +30353,22 @@
         <v>191.4735447740309</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9454809665884</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276542198663</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.554946690909</v>
       </c>
       <c r="W39" t="n">
-        <v>240.554946690909</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>15.26480640561661</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30420,19 +30420,19 @@
         <v>36.73089156368813</v>
       </c>
       <c r="P40" t="n">
-        <v>57.83856215320002</v>
+        <v>162.3290738541023</v>
       </c>
       <c r="Q40" t="n">
-        <v>171.8763129693559</v>
+        <v>126.7738576957197</v>
       </c>
       <c r="R40" t="n">
-        <v>240.554946690909</v>
+        <v>203.1920160450731</v>
       </c>
       <c r="S40" t="n">
-        <v>240.554946690909</v>
+        <v>235.3458201896853</v>
       </c>
       <c r="T40" t="n">
-        <v>240.554946690909</v>
+        <v>223.7389474107024</v>
       </c>
       <c r="U40" t="n">
         <v>240.554946690909</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="C41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="D41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="E41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="F41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="G41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="H41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="I41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="J41" t="n">
-        <v>240.554946690909</v>
+        <v>75.78032220706913</v>
       </c>
       <c r="K41" t="n">
-        <v>240.554946690909</v>
+        <v>5.226507866178885</v>
       </c>
       <c r="L41" t="n">
-        <v>49.20719891181362</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>27.92163120084281</v>
       </c>
       <c r="O41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="P41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="R41" t="n">
-        <v>240.554946690909</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S41" t="n">
-        <v>240.554946690909</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="U41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="V41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="X41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="Y41" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
     </row>
     <row r="42">
@@ -30539,7 +30539,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -30560,7 +30560,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J42" t="n">
-        <v>51.87880489469028</v>
+        <v>51.87880489469025</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30584,22 +30584,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>131.2775641924387</v>
+        <v>81.41459515964456</v>
       </c>
       <c r="T42" t="n">
         <v>214.9454809665884</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>240.554946690909</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30630,7 +30630,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>240.554946690909</v>
+        <v>168.6954829817093</v>
       </c>
       <c r="H43" t="n">
         <v>165.7773474488177</v>
@@ -30642,25 +30642,25 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K43" t="n">
-        <v>66.41515229588839</v>
+        <v>66.41515229588836</v>
       </c>
       <c r="L43" t="n">
-        <v>31.36504828657057</v>
+        <v>31.36504828657053</v>
       </c>
       <c r="M43" t="n">
-        <v>24.38732889638567</v>
+        <v>24.38732889638563</v>
       </c>
       <c r="N43" t="n">
-        <v>15.71034539069795</v>
+        <v>15.71034539069792</v>
       </c>
       <c r="O43" t="n">
-        <v>36.73089156368813</v>
+        <v>36.73089156368809</v>
       </c>
       <c r="P43" t="n">
-        <v>57.83856215320002</v>
+        <v>162.3290738541024</v>
       </c>
       <c r="Q43" t="n">
-        <v>159.4049056874223</v>
+        <v>126.7738576957196</v>
       </c>
       <c r="R43" t="n">
         <v>203.1920160450731</v>
@@ -30672,13 +30672,13 @@
         <v>223.7389474107024</v>
       </c>
       <c r="U43" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="V43" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W43" t="n">
-        <v>240.554946690909</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="C44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="D44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="E44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="F44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="G44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="H44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="I44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="J44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="K44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="L44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="M44" t="n">
-        <v>49.20719891181372</v>
+        <v>240.554946690909</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>53.95242837116368</v>
       </c>
       <c r="P44" t="n">
-        <v>240.5549466909089</v>
+        <v>13.3954793205224</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="R44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="S44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="T44" t="n">
-        <v>240.5549466909089</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Y44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
     </row>
     <row r="45">
@@ -30773,10 +30773,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30797,7 +30797,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J45" t="n">
-        <v>51.87880489469028</v>
+        <v>51.87880489469025</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30824,25 +30824,25 @@
         <v>134.3278900205298</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4735447740308</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9454809665884</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>103.3392465088545</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W45" t="n">
-        <v>180.3589661093168</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>223.2422679262569</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30864,7 +30864,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>240.554946690909</v>
       </c>
       <c r="G46" t="n">
         <v>168.6954829817093</v>
@@ -30879,25 +30879,25 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K46" t="n">
-        <v>66.41515229588838</v>
+        <v>66.41515229588836</v>
       </c>
       <c r="L46" t="n">
-        <v>31.36504828657055</v>
+        <v>31.36504828657053</v>
       </c>
       <c r="M46" t="n">
-        <v>24.38732889638566</v>
+        <v>24.38732889638563</v>
       </c>
       <c r="N46" t="n">
-        <v>15.71034539069794</v>
+        <v>15.71034539069792</v>
       </c>
       <c r="O46" t="n">
-        <v>36.73089156368812</v>
+        <v>36.73089156368809</v>
       </c>
       <c r="P46" t="n">
-        <v>57.8385621532</v>
+        <v>57.83856215319999</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.7738576957197</v>
+        <v>126.7738576957196</v>
       </c>
       <c r="R46" t="n">
         <v>203.1920160450731</v>
@@ -30906,22 +30906,22 @@
         <v>235.3458201896853</v>
       </c>
       <c r="T46" t="n">
-        <v>240.5549466909089</v>
+        <v>226.6013946391424</v>
       </c>
       <c r="U46" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V46" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W46" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X46" t="n">
-        <v>240.5549466909089</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
-        <v>240.5549466909089</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
   </sheetData>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4185166165508685</v>
+        <v>0.418516616550869</v>
       </c>
       <c r="H41" t="n">
-        <v>4.286133299251583</v>
+        <v>4.286133299251588</v>
       </c>
       <c r="I41" t="n">
-        <v>16.13486185957737</v>
+        <v>16.13486185957739</v>
       </c>
       <c r="J41" t="n">
-        <v>35.5210746839843</v>
+        <v>35.52107468398435</v>
       </c>
       <c r="K41" t="n">
-        <v>53.23688306258258</v>
+        <v>53.23688306258264</v>
       </c>
       <c r="L41" t="n">
-        <v>66.04506096635123</v>
+        <v>66.04506096635131</v>
       </c>
       <c r="M41" t="n">
-        <v>73.48785584593773</v>
+        <v>73.48785584593783</v>
       </c>
       <c r="N41" t="n">
-        <v>74.6769661827129</v>
+        <v>74.67696618271299</v>
       </c>
       <c r="O41" t="n">
-        <v>70.51534157688519</v>
+        <v>70.51534157688528</v>
       </c>
       <c r="P41" t="n">
-        <v>60.18321260578562</v>
+        <v>60.18321260578569</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.19508627555763</v>
+        <v>45.19508627555768</v>
       </c>
       <c r="R41" t="n">
-        <v>26.28964441441351</v>
+        <v>26.28964441441355</v>
       </c>
       <c r="S41" t="n">
-        <v>9.536947399652924</v>
+        <v>9.536947399652936</v>
       </c>
       <c r="T41" t="n">
-        <v>1.832056488951428</v>
+        <v>1.83205648895143</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03348132932406947</v>
+        <v>0.03348132932406951</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2239261312045521</v>
+        <v>0.2239261312045524</v>
       </c>
       <c r="H42" t="n">
-        <v>2.162655004001859</v>
+        <v>2.162655004001862</v>
       </c>
       <c r="I42" t="n">
-        <v>7.709737412086554</v>
+        <v>7.709737412086564</v>
       </c>
       <c r="J42" t="n">
-        <v>21.15610873805815</v>
+        <v>21.15610873805817</v>
       </c>
       <c r="K42" t="n">
-        <v>36.15915952876314</v>
+        <v>36.15915952876318</v>
       </c>
       <c r="L42" t="n">
-        <v>48.62045230386558</v>
+        <v>48.62045230386564</v>
       </c>
       <c r="M42" t="n">
-        <v>56.73777456003059</v>
+        <v>56.73777456003065</v>
       </c>
       <c r="N42" t="n">
-        <v>58.23945462411726</v>
+        <v>58.23945462411734</v>
       </c>
       <c r="O42" t="n">
-        <v>53.2777229800585</v>
+        <v>53.27772298005856</v>
       </c>
       <c r="P42" t="n">
-        <v>42.7600697385254</v>
+        <v>42.76006973852545</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.5839742218302</v>
+        <v>28.58397422183023</v>
       </c>
       <c r="R42" t="n">
-        <v>13.90306277777036</v>
+        <v>13.90306277777037</v>
       </c>
       <c r="S42" t="n">
-        <v>4.159329673909112</v>
+        <v>4.159329673909117</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9025794498990496</v>
+        <v>0.9025794498990507</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01473198231608896</v>
+        <v>0.01473198231608898</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1877321462356253</v>
+        <v>0.1877321462356256</v>
       </c>
       <c r="H43" t="n">
-        <v>1.669109445622197</v>
+        <v>1.6691094456222</v>
       </c>
       <c r="I43" t="n">
-        <v>5.645617634067716</v>
+        <v>5.645617634067723</v>
       </c>
       <c r="J43" t="n">
-        <v>13.27266273885871</v>
+        <v>13.27266273885873</v>
       </c>
       <c r="K43" t="n">
-        <v>21.81106208082992</v>
+        <v>21.81106208082995</v>
       </c>
       <c r="L43" t="n">
-        <v>27.91065017761288</v>
+        <v>27.91065017761292</v>
       </c>
       <c r="M43" t="n">
-        <v>29.4278672503717</v>
+        <v>29.42786725037174</v>
       </c>
       <c r="N43" t="n">
-        <v>28.7281383416753</v>
+        <v>28.72813834167534</v>
       </c>
       <c r="O43" t="n">
-        <v>26.53508554246822</v>
+        <v>26.53508554246825</v>
       </c>
       <c r="P43" t="n">
-        <v>22.70534975926144</v>
+        <v>22.70534975926147</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.72000726342132</v>
+        <v>15.72000726342134</v>
       </c>
       <c r="R43" t="n">
-        <v>8.441119957103661</v>
+        <v>8.441119957103671</v>
       </c>
       <c r="S43" t="n">
-        <v>3.271659312124488</v>
+        <v>3.271659312124492</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8021282611885808</v>
+        <v>0.8021282611885817</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01023993524921594</v>
+        <v>0.01023993524921595</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4185166165508686</v>
+        <v>0.418516616550869</v>
       </c>
       <c r="H44" t="n">
-        <v>4.286133299251585</v>
+        <v>4.286133299251588</v>
       </c>
       <c r="I44" t="n">
-        <v>16.13486185957738</v>
+        <v>16.13486185957739</v>
       </c>
       <c r="J44" t="n">
-        <v>35.52107468398432</v>
+        <v>35.52107468398435</v>
       </c>
       <c r="K44" t="n">
-        <v>53.2368830625826</v>
+        <v>53.23688306258264</v>
       </c>
       <c r="L44" t="n">
-        <v>66.04506096635126</v>
+        <v>66.04506096635131</v>
       </c>
       <c r="M44" t="n">
-        <v>73.48785584593776</v>
+        <v>73.48785584593783</v>
       </c>
       <c r="N44" t="n">
-        <v>74.67696618271293</v>
+        <v>74.67696618271299</v>
       </c>
       <c r="O44" t="n">
-        <v>70.51534157688522</v>
+        <v>70.51534157688528</v>
       </c>
       <c r="P44" t="n">
-        <v>60.18321260578564</v>
+        <v>60.18321260578569</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.19508627555765</v>
+        <v>45.19508627555768</v>
       </c>
       <c r="R44" t="n">
-        <v>26.28964441441352</v>
+        <v>26.28964441441355</v>
       </c>
       <c r="S44" t="n">
-        <v>9.536947399652929</v>
+        <v>9.536947399652936</v>
       </c>
       <c r="T44" t="n">
-        <v>1.832056488951428</v>
+        <v>1.83205648895143</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03348132932406948</v>
+        <v>0.03348132932406951</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2239261312045522</v>
+        <v>0.2239261312045524</v>
       </c>
       <c r="H45" t="n">
-        <v>2.16265500400186</v>
+        <v>2.162655004001862</v>
       </c>
       <c r="I45" t="n">
-        <v>7.709737412086556</v>
+        <v>7.709737412086564</v>
       </c>
       <c r="J45" t="n">
-        <v>21.15610873805815</v>
+        <v>21.15610873805817</v>
       </c>
       <c r="K45" t="n">
-        <v>36.15915952876315</v>
+        <v>36.15915952876318</v>
       </c>
       <c r="L45" t="n">
-        <v>48.6204523038656</v>
+        <v>48.62045230386564</v>
       </c>
       <c r="M45" t="n">
-        <v>56.73777456003061</v>
+        <v>56.73777456003065</v>
       </c>
       <c r="N45" t="n">
-        <v>58.23945462411729</v>
+        <v>58.23945462411734</v>
       </c>
       <c r="O45" t="n">
-        <v>53.27772298005852</v>
+        <v>53.27772298005856</v>
       </c>
       <c r="P45" t="n">
-        <v>42.76006973852542</v>
+        <v>42.76006973852545</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.58397422183021</v>
+        <v>28.58397422183023</v>
       </c>
       <c r="R45" t="n">
-        <v>13.90306277777036</v>
+        <v>13.90306277777037</v>
       </c>
       <c r="S45" t="n">
-        <v>4.159329673909114</v>
+        <v>4.159329673909117</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9025794498990499</v>
+        <v>0.9025794498990507</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01473198231608897</v>
+        <v>0.01473198231608898</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1877321462356254</v>
+        <v>0.1877321462356256</v>
       </c>
       <c r="H46" t="n">
-        <v>1.669109445622198</v>
+        <v>1.6691094456222</v>
       </c>
       <c r="I46" t="n">
-        <v>5.645617634067719</v>
+        <v>5.645617634067723</v>
       </c>
       <c r="J46" t="n">
-        <v>13.27266273885872</v>
+        <v>13.27266273885873</v>
       </c>
       <c r="K46" t="n">
-        <v>21.81106208082993</v>
+        <v>21.81106208082995</v>
       </c>
       <c r="L46" t="n">
-        <v>27.9106501776129</v>
+        <v>27.91065017761292</v>
       </c>
       <c r="M46" t="n">
-        <v>29.42786725037172</v>
+        <v>29.42786725037174</v>
       </c>
       <c r="N46" t="n">
-        <v>28.72813834167532</v>
+        <v>28.72813834167534</v>
       </c>
       <c r="O46" t="n">
-        <v>26.53508554246823</v>
+        <v>26.53508554246825</v>
       </c>
       <c r="P46" t="n">
-        <v>22.70534975926145</v>
+        <v>22.70534975926147</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.72000726342133</v>
+        <v>15.72000726342134</v>
       </c>
       <c r="R46" t="n">
-        <v>8.441119957103664</v>
+        <v>8.441119957103671</v>
       </c>
       <c r="S46" t="n">
-        <v>3.271659312124489</v>
+        <v>3.271659312124492</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8021282611885812</v>
+        <v>0.8021282611885817</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01023993524921594</v>
+        <v>0.01023993524921595</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>45.26954801765789</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>49.05450173165866</v>
+        <v>94.32404974931634</v>
       </c>
       <c r="M11" t="n">
         <v>83.75022101202049</v>
@@ -35425,7 +35425,7 @@
         <v>36.55404110068636</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>98.9399064850179</v>
+        <v>94.94233450582516</v>
       </c>
       <c r="M12" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="N12" t="n">
-        <v>9.267167734103484</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="O12" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="P12" t="n">
-        <v>85.67516677172179</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,7 +35547,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>55.17320693457123</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -35559,7 +35559,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>32.29633500510074</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>76.0630345555476</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="M13" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,19 +35653,19 @@
         <v>49.05450173165866</v>
       </c>
       <c r="M14" t="n">
-        <v>83.75022101202049</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="N14" t="n">
-        <v>78.19383561383771</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="O14" t="n">
         <v>36.55404110068636</v>
       </c>
       <c r="P14" t="n">
-        <v>45.26954801765789</v>
+        <v>9.333791673480212</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L15" t="n">
-        <v>98.9399064850179</v>
+        <v>68.84099665492515</v>
       </c>
       <c r="M15" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="N15" t="n">
-        <v>9.267167734103484</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="P15" t="n">
         <v>85.67516677172179</v>
@@ -35781,13 +35781,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.89867621330959</v>
       </c>
       <c r="D16" t="n">
-        <v>55.17320693457125</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>58.67971597305694</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35796,7 +35796,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>34.57850973646426</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>4.079339567288162</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="N16" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>2.481035065984956</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.58199948956231</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>45.26954801765791</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>36.55404110068636</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35908,16 +35908,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>36.3024547615764</v>
       </c>
       <c r="T17" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>8.967093256081284</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="M18" t="n">
-        <v>9.267167734103484</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="N18" t="n">
-        <v>98.9399064850179</v>
+        <v>9.267167734103428</v>
       </c>
       <c r="O18" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="P18" t="n">
         <v>85.67516677172179</v>
@@ -36127,7 +36127,7 @@
         <v>49.05450173165866</v>
       </c>
       <c r="M20" t="n">
-        <v>83.75022101202049</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="N20" t="n">
         <v>78.19383561383771</v>
@@ -36136,7 +36136,7 @@
         <v>36.55404110068636</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>30.07986254466034</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36145,13 +36145,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>45.26954801765786</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L21" t="n">
-        <v>9.267167734103484</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>98.9399064850179</v>
+        <v>68.84099665492515</v>
       </c>
       <c r="N21" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="O21" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="P21" t="n">
         <v>85.67516677172179</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>36.30245476157656</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>78.19383561383771</v>
       </c>
       <c r="O23" t="n">
-        <v>36.55404110068636</v>
+        <v>81.82358911834409</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,19 +36379,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>8.967093256081228</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L24" t="n">
-        <v>98.9399064850179</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="N24" t="n">
-        <v>98.9399064850179</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="O24" t="n">
-        <v>9.267167734103484</v>
+        <v>68.84099665492509</v>
       </c>
       <c r="P24" t="n">
         <v>85.67516677172179</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0803921385443</v>
+        <v>137.0803921385444</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6342064794345</v>
+        <v>207.6342064794335</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9152160772721</v>
+        <v>261.9152160772722</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6109353576345</v>
+        <v>296.610935357634</v>
       </c>
       <c r="N26" t="n">
-        <v>291.0545499594512</v>
+        <v>291.0545499594513</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4147554462998</v>
+        <v>249.4147554462999</v>
       </c>
       <c r="P26" t="n">
-        <v>199.465235025091</v>
+        <v>199.4652350250911</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.422972921961</v>
+        <v>124.4229729219611</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72024270447843</v>
+        <v>18.72024270447855</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36759,16 +36759,16 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>188.4733854492278</v>
+        <v>81.88886300428545</v>
       </c>
       <c r="N28" t="n">
-        <v>48.43762974747212</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0221521924136</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0803921385443</v>
+        <v>137.0803921385444</v>
       </c>
       <c r="K29" t="n">
-        <v>207.6342064794345</v>
+        <v>207.6342064794346</v>
       </c>
       <c r="L29" t="n">
-        <v>261.9152160772721</v>
+        <v>261.9152160772711</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6109353576339</v>
+        <v>296.610935357634</v>
       </c>
       <c r="N29" t="n">
-        <v>291.0545499594519</v>
+        <v>291.0545499594513</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4147554462998</v>
+        <v>249.4147554462999</v>
       </c>
       <c r="P29" t="n">
-        <v>199.465235025091</v>
+        <v>199.4652350250911</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.4229729219609</v>
+        <v>124.422972921961</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72024270447841</v>
+        <v>18.72024270447852</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>39.7606462417846</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>150.8241585468054</v>
       </c>
       <c r="N31" t="n">
-        <v>197.1503689549155</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.0868566498939</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37084,13 +37084,13 @@
         <v>249.4147554462998</v>
       </c>
       <c r="P32" t="n">
-        <v>199.4652350250909</v>
+        <v>199.465235025091</v>
       </c>
       <c r="Q32" t="n">
         <v>124.4229729219609</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72024270447838</v>
+        <v>18.72024270447841</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>4.2723983835685</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37215,7 +37215,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>44.16523136390408</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>188.4733854492277</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>51.11249411423442</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.1298227819253</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.668698300540337</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37312,28 +37312,28 @@
         <v>49.05450173165866</v>
       </c>
       <c r="M35" t="n">
-        <v>132.9574199238344</v>
+        <v>324.3051677029295</v>
       </c>
       <c r="N35" t="n">
-        <v>318.7487823047467</v>
+        <v>78.19383561383771</v>
       </c>
       <c r="O35" t="n">
-        <v>36.55404110068636</v>
+        <v>117.2087361048749</v>
       </c>
       <c r="P35" t="n">
         <v>227.1594673703865</v>
       </c>
       <c r="Q35" t="n">
-        <v>152.1172052672564</v>
+        <v>152.1172052672565</v>
       </c>
       <c r="R35" t="n">
-        <v>46.4144750497739</v>
+        <v>46.41447504977393</v>
       </c>
       <c r="S35" t="n">
-        <v>13.30678731250286</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>18.14070877987232</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37446,7 +37446,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>50.31158177485985</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37482,16 +37482,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>104.4905117009024</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>37.36293064583585</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>16.81599928020659</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37546,19 +37546,19 @@
         <v>235.32843882473</v>
       </c>
       <c r="L38" t="n">
-        <v>49.05450173165866</v>
+        <v>84.86622132294998</v>
       </c>
       <c r="M38" t="n">
         <v>83.75022101202049</v>
       </c>
       <c r="N38" t="n">
-        <v>127.4010345256516</v>
+        <v>318.7487823047467</v>
       </c>
       <c r="O38" t="n">
         <v>277.1089877915953</v>
       </c>
       <c r="P38" t="n">
-        <v>227.1594673703865</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>152.1172052672565</v>
@@ -37716,19 +37716,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>104.4905117009023</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.1024552736362</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>37.36293064583585</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>5.20912650122364</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>16.81599928020659</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7746244838398</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>235.32843882473</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>98.26170064347228</v>
+        <v>289.6094484225677</v>
       </c>
       <c r="M41" t="n">
-        <v>83.75022101202049</v>
+        <v>324.3051677029295</v>
       </c>
       <c r="N41" t="n">
-        <v>78.19383561383771</v>
+        <v>106.1154668146806</v>
       </c>
       <c r="O41" t="n">
-        <v>277.1089877915953</v>
+        <v>277.1089877915954</v>
       </c>
       <c r="P41" t="n">
         <v>227.1594673703865</v>
@@ -37801,13 +37801,13 @@
         <v>152.1172052672565</v>
       </c>
       <c r="R41" t="n">
-        <v>46.41447504977393</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.30678731250288</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.14070877987234</v>
+        <v>18.14070877987229</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.36607756419615</v>
+        <v>39.36607756419619</v>
       </c>
       <c r="L42" t="n">
-        <v>119.8886527290606</v>
+        <v>119.8886527290607</v>
       </c>
       <c r="M42" t="n">
-        <v>185.1111344851682</v>
+        <v>185.1111344851683</v>
       </c>
       <c r="N42" t="n">
-        <v>208.6164244570733</v>
+        <v>208.6164244570734</v>
       </c>
       <c r="O42" t="n">
-        <v>134.533087649157</v>
+        <v>134.5330876491571</v>
       </c>
       <c r="P42" t="n">
-        <v>85.67516677172179</v>
+        <v>85.67516677172185</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37926,7 +37926,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>71.85946370919963</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37953,10 +37953,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>104.4905117009025</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.63104799170264</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,34 +38017,34 @@
         <v>164.7746244838398</v>
       </c>
       <c r="K44" t="n">
-        <v>235.32843882473</v>
+        <v>235.3284388247301</v>
       </c>
       <c r="L44" t="n">
         <v>289.6094484225677</v>
       </c>
       <c r="M44" t="n">
-        <v>132.9574199238342</v>
+        <v>324.3051677029296</v>
       </c>
       <c r="N44" t="n">
-        <v>78.19383561383773</v>
+        <v>78.19383561383779</v>
       </c>
       <c r="O44" t="n">
-        <v>36.55404110068639</v>
+        <v>90.50646947185012</v>
       </c>
       <c r="P44" t="n">
-        <v>227.1594673703865</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>152.1172052672565</v>
       </c>
       <c r="R44" t="n">
-        <v>46.41447504977391</v>
+        <v>46.41447504977396</v>
       </c>
       <c r="S44" t="n">
-        <v>13.30678731250286</v>
+        <v>13.3067873125029</v>
       </c>
       <c r="T44" t="n">
-        <v>18.14070877987232</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.36607756419616</v>
+        <v>39.36607756419619</v>
       </c>
       <c r="L45" t="n">
-        <v>119.8886527290606</v>
+        <v>119.8886527290607</v>
       </c>
       <c r="M45" t="n">
-        <v>185.1111344851682</v>
+        <v>185.1111344851683</v>
       </c>
       <c r="N45" t="n">
-        <v>208.6164244570733</v>
+        <v>208.6164244570734</v>
       </c>
       <c r="O45" t="n">
         <v>134.5330876491571</v>
       </c>
       <c r="P45" t="n">
-        <v>85.67516677172181</v>
+        <v>85.67516677172185</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45.62534726128887</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>101.6280644724623</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.81599928020657</v>
+        <v>2.862447228439998</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38214,10 +38214,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>18.63549128266641</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>23.41367387674052</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
